--- a/python-in-excel-dashboard-copilot-demo.xlsx
+++ b/python-in-excel-dashboard-copilot-demo.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GeorgeMount\Documents\GitHub\blog-files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E632B61F-D3A3-44E7-BB53-78AB643C6490}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C4DCBC1-69DE-41BF-A66E-D5B73331EAEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="18915" windowHeight="12676" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="18915" windowHeight="12676" xr2:uid="{3B245998-3DB2-4834-90D2-2DE61E41F9BF}"/>
   </bookViews>
   <sheets>
     <sheet name="mpg" sheetId="1" r:id="rId1"/>
+    <sheet name="Analysis1" sheetId="2" r:id="rId2"/>
+    <sheet name="dashboard" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -47,18 +49,116 @@
       </extLst>
     </bk>
   </futureMetadata>
-  <futureMetadata name="XLRICHVALUE" count="2">
+  <futureMetadata name="XLRICHVALUE" count="16">
     <bk>
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="0"/>
+          <xlrd:rvb i="2"/>
         </ext>
       </extLst>
     </bk>
     <bk>
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="1"/>
+          <xlrd:rvb i="3"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="7"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="4"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="8"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="11"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="15"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="18"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="22"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="26"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="30"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="32"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="35"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="36"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="37"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="38"/>
         </ext>
       </extLst>
     </bk>
@@ -68,12 +168,54 @@
       <rc t="1" v="0"/>
     </bk>
   </cellMetadata>
-  <valueMetadata count="2">
+  <valueMetadata count="16">
     <bk>
       <rc t="2" v="0"/>
     </bk>
     <bk>
       <rc t="2" v="1"/>
+    </bk>
+    <bk>
+      <rc t="2" v="2"/>
+    </bk>
+    <bk>
+      <rc t="2" v="3"/>
+    </bk>
+    <bk>
+      <rc t="2" v="4"/>
+    </bk>
+    <bk>
+      <rc t="2" v="5"/>
+    </bk>
+    <bk>
+      <rc t="2" v="6"/>
+    </bk>
+    <bk>
+      <rc t="2" v="7"/>
+    </bk>
+    <bk>
+      <rc t="2" v="8"/>
+    </bk>
+    <bk>
+      <rc t="2" v="9"/>
+    </bk>
+    <bk>
+      <rc t="2" v="10"/>
+    </bk>
+    <bk>
+      <rc t="2" v="11"/>
+    </bk>
+    <bk>
+      <rc t="2" v="12"/>
+    </bk>
+    <bk>
+      <rc t="2" v="13"/>
+    </bk>
+    <bk>
+      <rc t="2" v="14"/>
+    </bk>
+    <bk>
+      <rc t="2" v="15"/>
     </bk>
   </valueMetadata>
 </metadata>
@@ -98,6 +240,69 @@
   </environmentDefinition>
   <pythonScripts>
     <pythonScript>
+      <code>mpg_df=xl(%P2%, headers=True)</code>
+    </pythonScript>
+    <pythonScript>
+      <code>#Explore the dataset
+mpg_df.info(), mpg_df.describe()</code>
+    </pythonScript>
+    <pythonScript>
+      <code>#Dataset Information
+mpg_df.info()</code>
+    </pythonScript>
+    <pythonScript>
+      <code>#Summary Statistics
+mpg_df.describe()</code>
+    </pythonScript>
+    <pythonScript>
+      <code>#Histogram of MPG
+# Univariate Plot: Histogram of MPG
+plt.figure(figsize=(10, 6))
+sns.histplot(mpg_df['mpg'], bins=20, kde=True)
+plt.title('Distribution of MPG')
+plt.xlabel('MPG')
+plt.ylabel('Frequency')
+plt.show()</code>
+    </pythonScript>
+    <pythonScript>
+      <code>#Box Plot of MPG by Cylinders
+#Box Plot of MPG by Cylinders
+# Univariate Plot: Box Plot of MPG by Cylinders
+plt.figure(figsize=(10, 6))
+sns.boxplot(x='cylinders', y='mpg', data=mpg_df)
+plt.title('MPG by Cylinders')
+plt.xlabel('Cylinders')
+plt.ylabel('MPG')
+plt.show()</code>
+    </pythonScript>
+    <pythonScript>
+      <code>#Scatter Plot of Horsepower vs Weight
+# Scatter Plot of Horsepower vs Weight
+plt.figure(figsize=(10, 6))
+sns.scatterplot(x='horsepower', y='weight', data=mpg_df)
+plt.title('Horsepower vs Weight')
+plt.xlabel('Horsepower')
+plt.ylabel('Weight')
+plt.show()</code>
+    </pythonScript>
+    <pythonScript>
+      <code>#Pair Plot of Multiple Variables
+#Pair Plot of Multiple Variables
+# Pair Plot of Multiple Variables
+sns.pairplot(mpg_df[['mpg', 'cylinders', 'displacement', 'horsepower', 'weight', 'acceleration']])
+plt.show()</code>
+    </pythonScript>
+    <pythonScript>
+      <code>#Heatmap of Correlation Matrix
+#Heatmap of Correlation Matrix
+# Heatmap of Correlation Matrix
+plt.figure(figsize=(10, 6))
+corr_matrix = mpg_df[['mpg', 'cylinders', 'displacement', 'horsepower', 'weight', 'acceleration']].corr()
+sns.heatmap(corr_matrix, annot=True, cmap='coolwarm', linewidths=0.5)
+plt.title('Correlation Matrix Heatmap')
+plt.show()</code>
+    </pythonScript>
+    <pythonScript>
       <code>def force_to_list(value):
     if isinstance(value, pd.DataFrame):
         return value.values.flatten().tolist()
@@ -106,20 +311,56 @@
     elif hasattr(value, '__iter__') and not isinstance(value, str):
         return list(value)  # Handle other iterable types
     else:
-        return [value]  # Wrap scalars in a list</code>
+        return [value]  # Wrap scalars in a list
+mpg_df_filtered = mpg_df[mpg_df['origin'].isin(force_to_list(xl(%P2%)))]</code>
     </pythonScript>
     <pythonScript>
-      <code>mpg_df = xl(%P2%, headers=True)
-mpg_filtered = mpg_df[mpg_df['origin'].isin(force_to_list(xl(%P3%)))]
-sns.scatterplot(x='weight', y='mpg', hue='origin', data=mpg_filtered)
-plt.title('MPG vs weight by origin')</code>
+      <code>#Histogram of MPG
+# Univariate Plot: Histogram of MPG
+plt.figure(figsize=(10, 6))
+sns.histplot(mpg_df_filtered['mpg'], bins=20, kde=True)
+plt.title('Distribution of MPG')
+plt.xlabel('MPG')
+plt.ylabel('Frequency')
+plt.show()</code>
+    </pythonScript>
+    <pythonScript>
+      <code>#Box Plot of MPG by Cylinders
+#Box Plot of MPG by Cylinders
+# Univariate Plot: Box Plot of MPG by Cylinders
+plt.figure(figsize=(10, 6))
+sns.boxplot(x='cylinders', y='mpg', data=mpg_df_filtered)
+plt.title('MPG by Cylinders')
+plt.xlabel('Cylinders')
+plt.ylabel('MPG')
+plt.show()</code>
+    </pythonScript>
+    <pythonScript>
+      <code>#Scatter Plot of Horsepower vs Weight
+# Scatter Plot of Horsepower vs Weight
+plt.figure(figsize=(10, 6))
+sns.scatterplot(x='horsepower', y='weight', data=mpg_df_filtered, hue='origin')
+plt.title('Horsepower vs Weight')
+plt.xlabel('Horsepower')
+plt.ylabel('Weight')
+plt.show()</code>
+    </pythonScript>
+    <pythonScript>
+      <code>#Heatmap of Correlation Matrix
+#Heatmap of Correlation Matrix
+# Heatmap of Correlation Matrix
+plt.figure(figsize=(10, 6))
+corr_matrix = mpg_df_filtered[['mpg', 'cylinders', 'displacement', 'horsepower', 'weight', 'acceleration']].corr()
+sns.heatmap(corr_matrix, annot=True, cmap='coolwarm', linewidths=0.5)
+plt.title('Correlation Matrix Heatmap')
+plt.show()</code>
     </pythonScript>
   </pythonScripts>
 </python>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="25">
   <si>
     <t>mpg</t>
   </si>
@@ -153,12 +394,54 @@
   <si>
     <t>europe</t>
   </si>
+  <si>
+    <t>Analysis Sheet</t>
+  </si>
+  <si>
+    <t>This sheet will include all the Python formulas generated by Copilot.</t>
+  </si>
+  <si>
+    <t>Load data from mpg, mpg</t>
+  </si>
+  <si>
+    <t>Preview</t>
+  </si>
+  <si>
+    <t>Explore the dataset</t>
+  </si>
+  <si>
+    <t>Dataset Information</t>
+  </si>
+  <si>
+    <t>Summary Statistics</t>
+  </si>
+  <si>
+    <t>Histogram of MPG</t>
+  </si>
+  <si>
+    <t>Box Plot of MPG by Cylinders</t>
+  </si>
+  <si>
+    <t>Scatter Plot of Horsepower vs Weight</t>
+  </si>
+  <si>
+    <t>Pair Plot of Multiple Variables</t>
+  </si>
+  <si>
+    <t>Heatmap of Correlation Matrix</t>
+  </si>
+  <si>
+    <t>Fuel Efficiency and Vehicle Performance Dashboard</t>
+  </si>
+  <si>
+    <t>Select an origin:</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="16"/>
       <color theme="1"/>
@@ -292,6 +575,52 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="24"/>
+      <color rgb="FF156082"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF156082"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="22"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="22"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="36"/>
+      <color rgb="FF242424"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="33">
@@ -635,15 +964,32 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
       <extLst>
         <ext xmlns:xfpb="http://schemas.microsoft.com/office/spreadsheetml/2022/featurepropertybag" uri="{C7286773-470A-42A8-94C5-96B5CB345126}">
           <xfpb:xfComplement i="0"/>
         </ext>
       </extLst>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -706,23 +1052,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>382700</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>214313</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>659424</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>187842</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>191828</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2" descr="Image generated by Python">
+        <xdr:cNvPr id="2" name="Picture 1" title="Histogram of MPG">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CAB4697C-B68D-D56C-9567-F980B1D0D884}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3DE28D23-4042-5CBB-6F63-A485B01FA49B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -730,7 +1076,7 @@
           <a:picLocks noChangeAspect="1"/>
           <a:extLst>
             <a:ext uri="{53484399-7A02-498B-ADA4-41CD10E50FAC}">
-              <aif:imageFormula xmlns:aif="http://schemas.microsoft.com/office/drawing/2022/imageformula" formula="mpg!J7"/>
+              <aif:imageFormula xmlns:aif="http://schemas.microsoft.com/office/drawing/2022/imageformula" formula="Analysis1!A54"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPicPr>
@@ -743,35 +1089,40 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9991045" y="1785938"/>
-          <a:ext cx="5178698" cy="3902591"/>
+          <a:off x="0" y="14525625"/>
+          <a:ext cx="6592628" cy="4267200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+        </a:ln>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>680357</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>108857</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>957082</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>5669</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>191828</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1" descr="Image generated by Python">
+        <xdr:cNvPr id="3" name="Picture 2" title="Box Plot of MPG by Cylinders">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34058670-B6C2-0FDA-D136-F6018E511379}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9041F91-7F89-64D1-1ED3-EB56CB148C79}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -779,7 +1130,228 @@
           <a:picLocks noChangeAspect="1"/>
           <a:extLst>
             <a:ext uri="{53484399-7A02-498B-ADA4-41CD10E50FAC}">
-              <aif:imageFormula xmlns:aif="http://schemas.microsoft.com/office/drawing/2022/imageformula" formula="mpg!J7"/>
+              <aif:imageFormula xmlns:aif="http://schemas.microsoft.com/office/drawing/2022/imageformula" formula="Analysis1!A74"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="19859625"/>
+          <a:ext cx="6592628" cy="4267200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>324934</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3" title="Scatter Plot of Horsepower vs Weight">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79070203-1283-9460-1EA2-EF6E4F3CEB78}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+          <a:extLst>
+            <a:ext uri="{53484399-7A02-498B-ADA4-41CD10E50FAC}">
+              <aif:imageFormula xmlns:aif="http://schemas.microsoft.com/office/drawing/2022/imageformula" formula="Analysis1!A94"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="25193625"/>
+          <a:ext cx="6725734" cy="4267200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>606709</xdr:colOff>
+      <xdr:row>130</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4" title="Pair Plot of Multiple Variables">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{42280FBB-A329-8B0C-776B-A1A15B5BEA4E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+          <a:extLst>
+            <a:ext uri="{53484399-7A02-498B-ADA4-41CD10E50FAC}">
+              <aif:imageFormula xmlns:aif="http://schemas.microsoft.com/office/drawing/2022/imageformula" formula="Analysis1!A114"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="30527625"/>
+          <a:ext cx="4264309" cy="4267200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>134</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>551653</xdr:colOff>
+      <xdr:row>150</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5" title="Heatmap of Correlation Matrix">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{60535841-D015-E1B8-8035-AF80AC4A1BDF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+          <a:extLst>
+            <a:ext uri="{53484399-7A02-498B-ADA4-41CD10E50FAC}">
+              <aif:imageFormula xmlns:aif="http://schemas.microsoft.com/office/drawing/2022/imageformula" formula="Analysis1!A134"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="35861625"/>
+          <a:ext cx="6952453" cy="4267200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>297658</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>11905</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>78116</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="Image generated by Python">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5AA78E15-B460-3C4A-5824-053992143F53}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+          <a:extLst>
+            <a:ext uri="{53484399-7A02-498B-ADA4-41CD10E50FAC}">
+              <aif:imageFormula xmlns:aif="http://schemas.microsoft.com/office/drawing/2022/imageformula" formula="dashboard!A4"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPicPr>
@@ -792,8 +1364,155 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11157857" y="1700893"/>
-          <a:ext cx="5148082" cy="4142240"/>
+          <a:off x="0" y="1797846"/>
+          <a:ext cx="7905750" cy="4983490"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>59532</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>261938</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>20399</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>54303</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2" descr="Image generated by Python">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84EAC34F-4AC3-9159-528C-2CA908489DA5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+          <a:extLst>
+            <a:ext uri="{53484399-7A02-498B-ADA4-41CD10E50FAC}">
+              <aif:imageFormula xmlns:aif="http://schemas.microsoft.com/office/drawing/2022/imageformula" formula="dashboard!A5"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="59532" y="6965158"/>
+          <a:ext cx="7854712" cy="4983490"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>226216</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>381001</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2678904</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>161459</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3" descr="Image generated by Python">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13DB8917-0A1A-851C-CD68-0C4A5BD4AEB2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+          <a:extLst>
+            <a:ext uri="{53484399-7A02-498B-ADA4-41CD10E50FAC}">
+              <aif:imageFormula xmlns:aif="http://schemas.microsoft.com/office/drawing/2022/imageformula" formula="dashboard!C4"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8120061" y="1881189"/>
+          <a:ext cx="8429626" cy="4983490"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>309560</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>369094</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2547935</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>5178848</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4" descr="Image generated by Python">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70A7DAEF-7380-D25F-89F2-EB76952328AF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+          <a:extLst>
+            <a:ext uri="{53484399-7A02-498B-ADA4-41CD10E50FAC}">
+              <aif:imageFormula xmlns:aif="http://schemas.microsoft.com/office/drawing/2022/imageformula" formula="dashboard!C5"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8203405" y="7072314"/>
+          <a:ext cx="8215313" cy="4809754"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -862,14 +1581,427 @@
 </rvTypesInfo>
 </file>
 
+<file path=xl/richData/rdarray.xml><?xml version="1.0" encoding="utf-8"?>
+<arrayData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" count="7">
+  <a r="12" c="9">
+    <v t="s"/>
+    <v t="s">mpg</v>
+    <v t="s">cylinders</v>
+    <v t="s">displacement</v>
+    <v t="s">horsepower</v>
+    <v t="s">weight</v>
+    <v t="s">acceleration</v>
+    <v t="s">model_year</v>
+    <v t="s">origin</v>
+    <v>0</v>
+    <v>18</v>
+    <v>8</v>
+    <v>307</v>
+    <v>130</v>
+    <v>3504</v>
+    <v>12</v>
+    <v>70</v>
+    <v t="s">usa</v>
+    <v>1</v>
+    <v>15</v>
+    <v>8</v>
+    <v>350</v>
+    <v>165</v>
+    <v>3693</v>
+    <v>11.5</v>
+    <v>70</v>
+    <v t="s">usa</v>
+    <v>2</v>
+    <v>18</v>
+    <v>8</v>
+    <v>318</v>
+    <v>150</v>
+    <v>3436</v>
+    <v>11</v>
+    <v>70</v>
+    <v t="s">usa</v>
+    <v>3</v>
+    <v>16</v>
+    <v>8</v>
+    <v>304</v>
+    <v>150</v>
+    <v>3433</v>
+    <v>12</v>
+    <v>70</v>
+    <v t="s">usa</v>
+    <v>4</v>
+    <v>17</v>
+    <v>8</v>
+    <v>302</v>
+    <v>140</v>
+    <v>3449</v>
+    <v>10.5</v>
+    <v>70</v>
+    <v t="s">usa</v>
+    <v t="s">...</v>
+    <v t="s">...</v>
+    <v t="s">...</v>
+    <v t="s">...</v>
+    <v t="s">...</v>
+    <v t="s">...</v>
+    <v t="s">...</v>
+    <v t="s">...</v>
+    <v t="s">...</v>
+    <v>393</v>
+    <v>27</v>
+    <v>4</v>
+    <v>140</v>
+    <v>86</v>
+    <v>2790</v>
+    <v>15.6</v>
+    <v>82</v>
+    <v t="s">usa</v>
+    <v>394</v>
+    <v>44</v>
+    <v>4</v>
+    <v>97</v>
+    <v>52</v>
+    <v>2130</v>
+    <v>24.6</v>
+    <v>82</v>
+    <v t="s">europe</v>
+    <v>395</v>
+    <v>32</v>
+    <v>4</v>
+    <v>135</v>
+    <v>84</v>
+    <v>2295</v>
+    <v>11.6</v>
+    <v>82</v>
+    <v t="s">usa</v>
+    <v>396</v>
+    <v>28</v>
+    <v>4</v>
+    <v>120</v>
+    <v>79</v>
+    <v>2625</v>
+    <v>18.600000000000001</v>
+    <v>82</v>
+    <v t="s">usa</v>
+    <v>397</v>
+    <v>31</v>
+    <v>4</v>
+    <v>119</v>
+    <v>82</v>
+    <v>2720</v>
+    <v>19.399999999999999</v>
+    <v>82</v>
+    <v t="s">usa</v>
+  </a>
+  <a r="2">
+    <v t="r">4</v>
+    <v t="s">&lt;DataFrame&gt;</v>
+  </a>
+  <a r="9" c="8">
+    <v t="s"/>
+    <v t="s">mpg</v>
+    <v t="s">cylinders</v>
+    <v t="s">displacement</v>
+    <v t="s">horsepower</v>
+    <v t="s">weight</v>
+    <v t="s">acceleration</v>
+    <v t="s">model_year</v>
+    <v t="s">count</v>
+    <v>398</v>
+    <v>398</v>
+    <v>398</v>
+    <v>392</v>
+    <v>398</v>
+    <v>398</v>
+    <v>398</v>
+    <v t="s">mean</v>
+    <v>23.514572864321607</v>
+    <v>5.4547738693467336</v>
+    <v>193.42587939698493</v>
+    <v>104.46938775510205</v>
+    <v>2970.424623115578</v>
+    <v>15.568090452261307</v>
+    <v>76.010050251256288</v>
+    <v t="s">std</v>
+    <v>7.8159843125657824</v>
+    <v>1.7010042445332094</v>
+    <v>104.26983817119581</v>
+    <v>38.491159932828552</v>
+    <v>846.84177419732714</v>
+    <v>2.7576889298126757</v>
+    <v>3.6976266467326231</v>
+    <v t="s">min</v>
+    <v>9</v>
+    <v>3</v>
+    <v>68</v>
+    <v>46</v>
+    <v>1613</v>
+    <v>8</v>
+    <v>70</v>
+    <v t="s">25%</v>
+    <v>17.5</v>
+    <v>4</v>
+    <v>104.25</v>
+    <v>75</v>
+    <v>2223.75</v>
+    <v>13.825000000000001</v>
+    <v>73</v>
+    <v t="s">50%</v>
+    <v>23</v>
+    <v>4</v>
+    <v>148.5</v>
+    <v>93.5</v>
+    <v>2803.5</v>
+    <v>15.5</v>
+    <v>76</v>
+    <v t="s">75%</v>
+    <v>29</v>
+    <v>8</v>
+    <v>262</v>
+    <v>126</v>
+    <v>3608</v>
+    <v>17.175000000000001</v>
+    <v>79</v>
+    <v t="s">max</v>
+    <v>46.6</v>
+    <v>8</v>
+    <v>455</v>
+    <v>230</v>
+    <v>5140</v>
+    <v>24.8</v>
+    <v>82</v>
+  </a>
+  <a r="2">
+    <v>842</v>
+    <v>545</v>
+  </a>
+  <a r="2">
+    <v>859</v>
+    <v>545</v>
+  </a>
+  <a r="2">
+    <v>1475</v>
+    <v>1476</v>
+  </a>
+  <a r="2">
+    <v>857</v>
+    <v>526</v>
+  </a>
+</arrayData>
+</file>
+
 <file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
-<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="2">
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="39">
   <rv s="0">
-    <fb>0</fb>
     <v>0</v>
   </rv>
   <rv s="1">
+    <v>DataFrame</v>
+    <v>1</v>
     <v>0</v>
+  </rv>
+  <rv s="2">
+    <v>&lt;class 'pandas.core.frame.DataFrame'&gt;</v>
+    <v>DataFrame</v>
+    <v xml:space="preserve">      mpg  cylinders  displacement  horsepower  weight  acceleration  \
+0    18.0          8         307.0       130.0    3504          12.0   
+1    15.0          8         350.0       165.0    3693          11.5   
+2    18.0          8         318.0  ...</v>
+    <v>1</v>
+    <v>2</v>
+  </rv>
+  <rv s="3">
+    <v>14</v>
+  </rv>
+  <rv s="4">
+    <fb>0</fb>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>1</v>
+  </rv>
+  <rv s="1">
+    <v>tuple</v>
+    <v>4</v>
+    <v>5</v>
+  </rv>
+  <rv s="2">
+    <v>&lt;class 'tuple'&gt;</v>
+    <v>tuple</v>
+    <v>(None,               mpg   cylinders  displacement  horsepower       weight  \
+count  398.000000  398.000000    398.000000  392.000000   398.000000   
+mean    23.514573    5.454774    193.425879  104.469388  2970.424623   
+std      7.815984    1.701004...</v>
+    <v>6</v>
+    <v>2</v>
+  </rv>
+  <rv s="2">
+    <fb>0</fb>
+    <v>&lt;class 'NoneType'&gt;</v>
+    <v>NoneType</v>
+    <v>None</v>
+    <v>4</v>
+    <v>2</v>
+  </rv>
+  <rv s="0">
+    <v>2</v>
+  </rv>
+  <rv s="1">
+    <v>DataFrame</v>
+    <v>7</v>
+    <v>9</v>
+  </rv>
+  <rv s="2">
+    <v>&lt;class 'pandas.core.frame.DataFrame'&gt;</v>
+    <v>DataFrame</v>
+    <v xml:space="preserve">              mpg   cylinders  displacement  horsepower       weight  \
+count  398.000000  398.000000    398.000000  392.000000   398.000000   
+mean    23.514573    5.454774    193.425879  104.469388  2970.424623   
+std      7.815984    1.701004    104...</v>
+    <v>10</v>
+    <v>2</v>
+  </rv>
+  <rv s="5">
+    <v>0</v>
+    <v>9</v>
+  </rv>
+  <rv s="0">
+    <v>3</v>
+  </rv>
+  <rv s="6">
+    <v>Image</v>
+    <v>8</v>
+    <v>12</v>
+    <v>13</v>
+  </rv>
+  <rv s="2">
+    <v>&lt;class 'PIL.PngImagePlugin.PngImageFile'&gt;</v>
+    <v>PngImageFile</v>
+    <v>&lt;PIL.PngImagePlugin.PngImageFile image mode=RGBA size=842x545 at 0x7FA0030DEBD0&gt;</v>
+    <v>14</v>
+    <v>2</v>
+  </rv>
+  <rv s="5">
+    <v>1</v>
+    <v>9</v>
+  </rv>
+  <rv s="6">
+    <v>Image</v>
+    <v>8</v>
+    <v>16</v>
+    <v>13</v>
+  </rv>
+  <rv s="2">
+    <v>&lt;class 'PIL.PngImagePlugin.PngImageFile'&gt;</v>
+    <v>PngImageFile</v>
+    <v>&lt;PIL.PngImagePlugin.PngImageFile image mode=RGBA size=842x545 at 0x7FA005D48830&gt;</v>
+    <v>17</v>
+    <v>2</v>
+  </rv>
+  <rv s="5">
+    <v>2</v>
+    <v>9</v>
+  </rv>
+  <rv s="0">
+    <v>4</v>
+  </rv>
+  <rv s="6">
+    <v>Image</v>
+    <v>8</v>
+    <v>19</v>
+    <v>20</v>
+  </rv>
+  <rv s="2">
+    <v>&lt;class 'PIL.PngImagePlugin.PngImageFile'&gt;</v>
+    <v>PngImageFile</v>
+    <v>&lt;PIL.PngImagePlugin.PngImageFile image mode=RGBA size=859x545 at 0x7FA00446B830&gt;</v>
+    <v>21</v>
+    <v>2</v>
+  </rv>
+  <rv s="5">
+    <v>3</v>
+    <v>9</v>
+  </rv>
+  <rv s="0">
+    <v>5</v>
+  </rv>
+  <rv s="6">
+    <v>Image</v>
+    <v>8</v>
+    <v>23</v>
+    <v>24</v>
+  </rv>
+  <rv s="2">
+    <v>&lt;class 'PIL.PngImagePlugin.PngImageFile'&gt;</v>
+    <v>PngImageFile</v>
+    <v>&lt;PIL.PngImagePlugin.PngImageFile image mode=RGBA size=1475x1476 at 0x7FA0030A6B70&gt;</v>
+    <v>25</v>
+    <v>2</v>
+  </rv>
+  <rv s="5">
+    <v>4</v>
+    <v>9</v>
+  </rv>
+  <rv s="0">
+    <v>6</v>
+  </rv>
+  <rv s="6">
+    <v>Image</v>
+    <v>8</v>
+    <v>27</v>
+    <v>28</v>
+  </rv>
+  <rv s="2">
+    <v>&lt;class 'PIL.PngImagePlugin.PngImageFile'&gt;</v>
+    <v>PngImageFile</v>
+    <v>&lt;PIL.PngImagePlugin.PngImageFile image mode=RGBA size=857x526 at 0x7FA0042FDB80&gt;</v>
+    <v>29</v>
+    <v>2</v>
+  </rv>
+  <rv s="1">
+    <v>DataFrame</v>
+    <v>10</v>
+    <v>0</v>
+  </rv>
+  <rv s="2">
+    <v>&lt;class 'pandas.core.frame.DataFrame'&gt;</v>
+    <v>DataFrame</v>
+    <v xml:space="preserve">      mpg  cylinders  displacement  horsepower  weight  acceleration  \
+0    18.0          8         307.0       130.0    3504          12.0   
+1    15.0          8         350.0       165.0    3693          11.5   
+2    18.0          8         318.0  ...</v>
+    <v>31</v>
+    <v>2</v>
+  </rv>
+  <rv s="5">
+    <v>5</v>
+    <v>9</v>
+  </rv>
+  <rv s="6">
+    <v>Image</v>
+    <v>8</v>
+    <v>33</v>
+    <v>13</v>
+  </rv>
+  <rv s="2">
+    <v>&lt;class 'PIL.PngImagePlugin.PngImageFile'&gt;</v>
+    <v>PngImageFile</v>
+    <v>&lt;PIL.PngImagePlugin.PngImageFile image mode=RGBA size=842x545 at 0x7FA007888EF0&gt;</v>
+    <v>34</v>
+    <v>2</v>
+  </rv>
+  <rv s="7">
+    <v>6</v>
+    <v>9</v>
+    <v>Image generated by Python</v>
+  </rv>
+  <rv s="7">
+    <v>7</v>
+    <v>9</v>
+    <v>Image generated by Python</v>
+  </rv>
+  <rv s="7">
+    <v>8</v>
     <v>9</v>
     <v>Image generated by Python</v>
   </rv>
@@ -877,9 +2009,37 @@
 </file>
 
 <file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
-<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="2">
+<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="8">
+  <s t="_array">
+    <k n="array" t="a"/>
+  </s>
+  <s t="_entity">
+    <k n="_DisplayString" t="s"/>
+    <k n="_ViewInfo" t="spb"/>
+    <k n="arrayPreview" t="r"/>
+  </s>
+  <s t="_python">
+    <k n="Python_type" t="s"/>
+    <k n="Python_typeName" t="s"/>
+    <k n="Python_str" t="s"/>
+    <k n="preview" t="r"/>
+    <k n="_Provider" t="spb"/>
+  </s>
+  <s t="_error">
+    <k n="errorType" t="i"/>
+  </s>
   <s t="_formattednumber">
     <k n="_Format" t="spb"/>
+  </s>
+  <s t="_localImage">
+    <k n="_rvRel:LocalImageIdentifier" t="i"/>
+    <k n="CalcOrigin" t="i"/>
+  </s>
+  <s t="_entity">
+    <k n="_DisplayString" t="s"/>
+    <k n="_Format" t="spb"/>
+    <k n="image" t="r"/>
+    <k n="size" t="r"/>
   </s>
   <s t="_localImage">
     <k n="_rvRel:LocalImageIdentifier" t="i"/>
@@ -891,18 +2051,89 @@
 
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
-  <spbData count="1">
+  <spbData count="11">
     <spb s="0">
+      <v>398</v>
+      <v>8</v>
+      <v>DataFrame</v>
+      <v>arrayPreview</v>
       <v>1</v>
+    </spb>
+    <spb s="1">
+      <v>0</v>
+    </spb>
+    <spb s="2">
+      <v>https://www.anaconda.com/excel</v>
+      <v>https://res.cdn.office.net/officepysvc/prod-preview/anacondalogo.png</v>
+      <v>Python provided by Anaconda</v>
+    </spb>
+    <spb s="3">
+      <v>2</v>
+      <v>1</v>
+      <v>tuple</v>
+      <v>arrayPreview</v>
+    </spb>
+    <spb s="1">
+      <v>3</v>
+    </spb>
+    <spb s="4">
+      <v>1</v>
+    </spb>
+    <spb s="0">
+      <v>8</v>
+      <v>7</v>
+      <v>DataFrame</v>
+      <v>arrayPreview</v>
+      <v>1</v>
+    </spb>
+    <spb s="1">
+      <v>6</v>
+    </spb>
+    <spb s="5">
+      <v>2</v>
+    </spb>
+    <spb s="0">
+      <v>319</v>
+      <v>8</v>
+      <v>DataFrame</v>
+      <v>arrayPreview</v>
+      <v>1</v>
+    </spb>
+    <spb s="1">
+      <v>9</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
 </file>
 
 <file path=xl/richData/rdsupportingpropertybagstructure.xml><?xml version="1.0" encoding="utf-8"?>
-<spbStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" count="1">
+<spbStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" count="6">
+  <s>
+    <k n="drw" t="i"/>
+    <k n="dcol" t="i"/>
+    <k n="name" t="s"/>
+    <k n="array" t="s"/>
+    <k n="headers" t="b"/>
+  </s>
+  <s>
+    <k n="ArrayCardInfo" t="spb"/>
+  </s>
+  <s>
+    <k n="link" t="s"/>
+    <k n="logo" t="s"/>
+    <k n="name" t="s"/>
+  </s>
+  <s>
+    <k n="drw" t="i"/>
+    <k n="dcol" t="i"/>
+    <k n="name" t="s"/>
+    <k n="array" t="s"/>
+  </s>
   <s>
     <k n="_Self" t="i"/>
+  </s>
+  <s>
+    <k n="image" t="i"/>
   </s>
 </spbStructures>
 </file>
@@ -916,10 +2147,14 @@
   </dxfs>
   <richProperties>
     <rPr n="NumberFormat" t="s"/>
+    <rPr n="IsHeroField" t="b"/>
   </richProperties>
   <richStyles>
     <rSty dxfid="0">
       <rpv i="0">0;-0;"None"</rpv>
+    </rSty>
+    <rSty>
+      <rpv i="1">1</rpv>
     </rSty>
   </richStyles>
 </richStyleSheet>
@@ -928,12 +2163,19 @@
 <file path=xl/richData/richValueRel.xml><?xml version="1.0" encoding="utf-8"?>
 <richValueRels xmlns="http://schemas.microsoft.com/office/spreadsheetml/2022/richvaluerel" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <rel r:id="rId1"/>
+  <rel r:id="rId2"/>
+  <rel r:id="rId3"/>
+  <rel r:id="rId4"/>
+  <rel r:id="rId5"/>
+  <rel r:id="rId6"/>
+  <rel r:id="rId7"/>
+  <rel r:id="rId8"/>
+  <rel r:id="rId9"/>
 </richValueRels>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A828EDAD-32E5-4405-A598-C65848F6C6DE}" name="mpg" displayName="mpg" ref="A1:H399" totalsRowShown="0">
-  <autoFilter ref="A1:H399" xr:uid="{A828EDAD-32E5-4405-A598-C65848F6C6DE}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{8EC16392-B97D-4D72-923A-FCD411E0690F}" name="mpg"/>
     <tableColumn id="2" xr3:uid="{0C9B0F83-08D5-428D-8501-57088C0C47B8}" name="cylinders"/>
@@ -1245,11 +2487,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O399"/>
+  <dimension ref="A1:H399"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.65"/>
   <cols>
@@ -1258,11 +2498,9 @@
     <col min="4" max="4" width="11.54296875" customWidth="1"/>
     <col min="6" max="6" width="11.76953125" customWidth="1"/>
     <col min="7" max="7" width="11.453125" customWidth="1"/>
-    <col min="13" max="13" width="20.36328125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.65">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1287,23 +2525,8 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="K1" t="str" cm="1">
-        <f t="array" ref="K1:K3">_xlfn.UNIQUE(mpg[origin])</f>
-        <v>usa</v>
-      </c>
-      <c r="M1" t="str" cm="1">
-        <f t="array" aca="1" ref="M1:M2" ca="1">_xlfn._xlws.FILTER(_xlfn.ANCHORARRAY(K1), OFFSET(_xlfn.ANCHORARRAY(K1), , -1) = TRUE, "Please make a selection.")</f>
-        <v>japan</v>
-      </c>
-      <c r="O1" cm="1" vm="1">
-        <f t="array" ref="O1">_xlfn._xlws.PY(0,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.65">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A2">
         <v>18</v>
       </c>
@@ -1328,18 +2551,8 @@
       <c r="H2" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="K2" t="str">
-        <v>japan</v>
-      </c>
-      <c r="M2" t="str">
-        <f ca="1"/>
-        <v>europe</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.65">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A3">
         <v>15</v>
       </c>
@@ -1364,14 +2577,8 @@
       <c r="H3" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="K3" t="str">
-        <v>europe</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.65">
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A4">
         <v>18</v>
       </c>
@@ -1397,7 +2604,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.65">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A5">
         <v>16</v>
       </c>
@@ -1423,7 +2630,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.65">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A6">
         <v>17</v>
       </c>
@@ -1449,7 +2656,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.65">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A7">
         <v>15</v>
       </c>
@@ -1474,12 +2681,8 @@
       <c r="H7" t="s">
         <v>8</v>
       </c>
-      <c r="J7" t="e" cm="1" vm="2">
-        <f t="array" aca="1" ref="J7" ca="1">_xlfn._xlws.PY(1,0,mpg[#All],_xlfn.ANCHORARRAY(M1))</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.65">
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A8">
         <v>14</v>
       </c>
@@ -1505,7 +2708,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.65">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A9">
         <v>14</v>
       </c>
@@ -1531,7 +2734,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.65">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A10">
         <v>14</v>
       </c>
@@ -1557,7 +2760,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.65">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A11">
         <v>15</v>
       </c>
@@ -1583,7 +2786,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.65">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A12">
         <v>15</v>
       </c>
@@ -1609,7 +2812,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.65">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A13">
         <v>14</v>
       </c>
@@ -1635,7 +2838,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.65">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A14">
         <v>15</v>
       </c>
@@ -1661,7 +2864,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.65">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1687,7 +2890,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.65">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A16">
         <v>24</v>
       </c>
@@ -11655,9 +12858,1029 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E08C75C-741E-4F75-98E0-43D7945301A8}">
+  <dimension ref="A1:I134"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.65"/>
+  <sheetData>
+    <row r="1" spans="1:9" ht="30.75" x14ac:dyDescent="0.9">
+      <c r="A1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.65">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.65">
+      <c r="A5" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.65">
+      <c r="A6" t="e" cm="1" vm="1">
+        <f t="array" aca="1" ref="A6" ca="1">_xlfn._xlws.PY(0,1,mpg[[#Headers],[#Data]])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.65">
+      <c r="A8" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.65">
+      <c r="A9" t="str" cm="1">
+        <f t="array" aca="1" ref="A9:I20" ca="1">IFERROR(_FV(A6,"arrayPreview"),_xlfn._DF_Python_str(A6))</f>
+        <v/>
+      </c>
+      <c r="B9" t="str">
+        <f ca="1"/>
+        <v>mpg</v>
+      </c>
+      <c r="C9" t="str">
+        <f ca="1"/>
+        <v>cylinders</v>
+      </c>
+      <c r="D9" t="str">
+        <f ca="1"/>
+        <v>displacement</v>
+      </c>
+      <c r="E9" t="str">
+        <f ca="1"/>
+        <v>horsepower</v>
+      </c>
+      <c r="F9" t="str">
+        <f ca="1"/>
+        <v>weight</v>
+      </c>
+      <c r="G9" t="str">
+        <f ca="1"/>
+        <v>acceleration</v>
+      </c>
+      <c r="H9" t="str">
+        <f ca="1"/>
+        <v>model_year</v>
+      </c>
+      <c r="I9" t="str">
+        <f ca="1"/>
+        <v>origin</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.65">
+      <c r="A10">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="B10">
+        <f ca="1"/>
+        <v>18</v>
+      </c>
+      <c r="C10">
+        <f ca="1"/>
+        <v>8</v>
+      </c>
+      <c r="D10">
+        <f ca="1"/>
+        <v>307</v>
+      </c>
+      <c r="E10">
+        <f ca="1"/>
+        <v>130</v>
+      </c>
+      <c r="F10">
+        <f ca="1"/>
+        <v>3504</v>
+      </c>
+      <c r="G10">
+        <f ca="1"/>
+        <v>12</v>
+      </c>
+      <c r="H10">
+        <f ca="1"/>
+        <v>70</v>
+      </c>
+      <c r="I10" t="str">
+        <f ca="1"/>
+        <v>usa</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.65">
+      <c r="A11">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="B11">
+        <f ca="1"/>
+        <v>15</v>
+      </c>
+      <c r="C11">
+        <f ca="1"/>
+        <v>8</v>
+      </c>
+      <c r="D11">
+        <f ca="1"/>
+        <v>350</v>
+      </c>
+      <c r="E11">
+        <f ca="1"/>
+        <v>165</v>
+      </c>
+      <c r="F11">
+        <f ca="1"/>
+        <v>3693</v>
+      </c>
+      <c r="G11">
+        <f ca="1"/>
+        <v>11.5</v>
+      </c>
+      <c r="H11">
+        <f ca="1"/>
+        <v>70</v>
+      </c>
+      <c r="I11" t="str">
+        <f ca="1"/>
+        <v>usa</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.65">
+      <c r="A12">
+        <f ca="1"/>
+        <v>2</v>
+      </c>
+      <c r="B12">
+        <f ca="1"/>
+        <v>18</v>
+      </c>
+      <c r="C12">
+        <f ca="1"/>
+        <v>8</v>
+      </c>
+      <c r="D12">
+        <f ca="1"/>
+        <v>318</v>
+      </c>
+      <c r="E12">
+        <f ca="1"/>
+        <v>150</v>
+      </c>
+      <c r="F12">
+        <f ca="1"/>
+        <v>3436</v>
+      </c>
+      <c r="G12">
+        <f ca="1"/>
+        <v>11</v>
+      </c>
+      <c r="H12">
+        <f ca="1"/>
+        <v>70</v>
+      </c>
+      <c r="I12" t="str">
+        <f ca="1"/>
+        <v>usa</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.65">
+      <c r="A13">
+        <f ca="1"/>
+        <v>3</v>
+      </c>
+      <c r="B13">
+        <f ca="1"/>
+        <v>16</v>
+      </c>
+      <c r="C13">
+        <f ca="1"/>
+        <v>8</v>
+      </c>
+      <c r="D13">
+        <f ca="1"/>
+        <v>304</v>
+      </c>
+      <c r="E13">
+        <f ca="1"/>
+        <v>150</v>
+      </c>
+      <c r="F13">
+        <f ca="1"/>
+        <v>3433</v>
+      </c>
+      <c r="G13">
+        <f ca="1"/>
+        <v>12</v>
+      </c>
+      <c r="H13">
+        <f ca="1"/>
+        <v>70</v>
+      </c>
+      <c r="I13" t="str">
+        <f ca="1"/>
+        <v>usa</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.65">
+      <c r="A14">
+        <f ca="1"/>
+        <v>4</v>
+      </c>
+      <c r="B14">
+        <f ca="1"/>
+        <v>17</v>
+      </c>
+      <c r="C14">
+        <f ca="1"/>
+        <v>8</v>
+      </c>
+      <c r="D14">
+        <f ca="1"/>
+        <v>302</v>
+      </c>
+      <c r="E14">
+        <f ca="1"/>
+        <v>140</v>
+      </c>
+      <c r="F14">
+        <f ca="1"/>
+        <v>3449</v>
+      </c>
+      <c r="G14">
+        <f ca="1"/>
+        <v>10.5</v>
+      </c>
+      <c r="H14">
+        <f ca="1"/>
+        <v>70</v>
+      </c>
+      <c r="I14" t="str">
+        <f ca="1"/>
+        <v>usa</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.65">
+      <c r="A15" t="str">
+        <f ca="1"/>
+        <v>...</v>
+      </c>
+      <c r="B15" t="str">
+        <f ca="1"/>
+        <v>...</v>
+      </c>
+      <c r="C15" t="str">
+        <f ca="1"/>
+        <v>...</v>
+      </c>
+      <c r="D15" t="str">
+        <f ca="1"/>
+        <v>...</v>
+      </c>
+      <c r="E15" t="str">
+        <f ca="1"/>
+        <v>...</v>
+      </c>
+      <c r="F15" t="str">
+        <f ca="1"/>
+        <v>...</v>
+      </c>
+      <c r="G15" t="str">
+        <f ca="1"/>
+        <v>...</v>
+      </c>
+      <c r="H15" t="str">
+        <f ca="1"/>
+        <v>...</v>
+      </c>
+      <c r="I15" t="str">
+        <f ca="1"/>
+        <v>...</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.65">
+      <c r="A16">
+        <f ca="1"/>
+        <v>393</v>
+      </c>
+      <c r="B16">
+        <f ca="1"/>
+        <v>27</v>
+      </c>
+      <c r="C16">
+        <f ca="1"/>
+        <v>4</v>
+      </c>
+      <c r="D16">
+        <f ca="1"/>
+        <v>140</v>
+      </c>
+      <c r="E16">
+        <f ca="1"/>
+        <v>86</v>
+      </c>
+      <c r="F16">
+        <f ca="1"/>
+        <v>2790</v>
+      </c>
+      <c r="G16">
+        <f ca="1"/>
+        <v>15.6</v>
+      </c>
+      <c r="H16">
+        <f ca="1"/>
+        <v>82</v>
+      </c>
+      <c r="I16" t="str">
+        <f ca="1"/>
+        <v>usa</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.65">
+      <c r="A17">
+        <f ca="1"/>
+        <v>394</v>
+      </c>
+      <c r="B17">
+        <f ca="1"/>
+        <v>44</v>
+      </c>
+      <c r="C17">
+        <f ca="1"/>
+        <v>4</v>
+      </c>
+      <c r="D17">
+        <f ca="1"/>
+        <v>97</v>
+      </c>
+      <c r="E17">
+        <f ca="1"/>
+        <v>52</v>
+      </c>
+      <c r="F17">
+        <f ca="1"/>
+        <v>2130</v>
+      </c>
+      <c r="G17">
+        <f ca="1"/>
+        <v>24.6</v>
+      </c>
+      <c r="H17">
+        <f ca="1"/>
+        <v>82</v>
+      </c>
+      <c r="I17" t="str">
+        <f ca="1"/>
+        <v>europe</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.65">
+      <c r="A18">
+        <f ca="1"/>
+        <v>395</v>
+      </c>
+      <c r="B18">
+        <f ca="1"/>
+        <v>32</v>
+      </c>
+      <c r="C18">
+        <f ca="1"/>
+        <v>4</v>
+      </c>
+      <c r="D18">
+        <f ca="1"/>
+        <v>135</v>
+      </c>
+      <c r="E18">
+        <f ca="1"/>
+        <v>84</v>
+      </c>
+      <c r="F18">
+        <f ca="1"/>
+        <v>2295</v>
+      </c>
+      <c r="G18">
+        <f ca="1"/>
+        <v>11.6</v>
+      </c>
+      <c r="H18">
+        <f ca="1"/>
+        <v>82</v>
+      </c>
+      <c r="I18" t="str">
+        <f ca="1"/>
+        <v>usa</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.65">
+      <c r="A19">
+        <f ca="1"/>
+        <v>396</v>
+      </c>
+      <c r="B19">
+        <f ca="1"/>
+        <v>28</v>
+      </c>
+      <c r="C19">
+        <f ca="1"/>
+        <v>4</v>
+      </c>
+      <c r="D19">
+        <f ca="1"/>
+        <v>120</v>
+      </c>
+      <c r="E19">
+        <f ca="1"/>
+        <v>79</v>
+      </c>
+      <c r="F19">
+        <f ca="1"/>
+        <v>2625</v>
+      </c>
+      <c r="G19">
+        <f ca="1"/>
+        <v>18.600000000000001</v>
+      </c>
+      <c r="H19">
+        <f ca="1"/>
+        <v>82</v>
+      </c>
+      <c r="I19" t="str">
+        <f ca="1"/>
+        <v>usa</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.65">
+      <c r="A20">
+        <f ca="1"/>
+        <v>397</v>
+      </c>
+      <c r="B20">
+        <f ca="1"/>
+        <v>31</v>
+      </c>
+      <c r="C20">
+        <f ca="1"/>
+        <v>4</v>
+      </c>
+      <c r="D20">
+        <f ca="1"/>
+        <v>119</v>
+      </c>
+      <c r="E20">
+        <f ca="1"/>
+        <v>82</v>
+      </c>
+      <c r="F20">
+        <f ca="1"/>
+        <v>2720</v>
+      </c>
+      <c r="G20">
+        <f ca="1"/>
+        <v>19.399999999999999</v>
+      </c>
+      <c r="H20">
+        <f ca="1"/>
+        <v>82</v>
+      </c>
+      <c r="I20" t="str">
+        <f ca="1"/>
+        <v>usa</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.65">
+      <c r="A23" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.65">
+      <c r="A24" t="e" cm="1" vm="3">
+        <f t="array" aca="1" ref="A24" ca="1">_xlfn._xlws.PY(1,1)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.65">
+      <c r="A26" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.65">
+      <c r="A27" cm="1" vm="4">
+        <f t="array" aca="1" ref="A27:A28" ca="1">IFERROR(_FV(A24,"arrayPreview"),_xlfn._DF_Python_str(A24))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.65">
+      <c r="A28" t="str">
+        <f ca="1"/>
+        <v>&lt;DataFrame&gt;</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.65">
+      <c r="A31" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.65">
+      <c r="A32" cm="1" vm="5">
+        <f t="array" aca="1" ref="A32" ca="1">_xlfn._xlws.PY(2,1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A34" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A35" t="str" cm="1">
+        <f t="array" aca="1" ref="A35" ca="1">IFERROR(_FV(A32,"arrayPreview"),_xlfn._DF_Python_str(A32))</f>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A38" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A39" t="e" cm="1" vm="6">
+        <f t="array" aca="1" ref="A39" ca="1">_xlfn._xlws.PY(3,1)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A41" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A42" t="str" cm="1">
+        <f t="array" aca="1" ref="A42:H50" ca="1">IFERROR(_FV(A39,"arrayPreview"),_xlfn._DF_Python_str(A39))</f>
+        <v/>
+      </c>
+      <c r="B42" t="str">
+        <f ca="1"/>
+        <v>mpg</v>
+      </c>
+      <c r="C42" t="str">
+        <f ca="1"/>
+        <v>cylinders</v>
+      </c>
+      <c r="D42" t="str">
+        <f ca="1"/>
+        <v>displacement</v>
+      </c>
+      <c r="E42" t="str">
+        <f ca="1"/>
+        <v>horsepower</v>
+      </c>
+      <c r="F42" t="str">
+        <f ca="1"/>
+        <v>weight</v>
+      </c>
+      <c r="G42" t="str">
+        <f ca="1"/>
+        <v>acceleration</v>
+      </c>
+      <c r="H42" t="str">
+        <f ca="1"/>
+        <v>model_year</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A43" t="str">
+        <f ca="1"/>
+        <v>count</v>
+      </c>
+      <c r="B43">
+        <f ca="1"/>
+        <v>398</v>
+      </c>
+      <c r="C43">
+        <f ca="1"/>
+        <v>398</v>
+      </c>
+      <c r="D43">
+        <f ca="1"/>
+        <v>398</v>
+      </c>
+      <c r="E43">
+        <f ca="1"/>
+        <v>392</v>
+      </c>
+      <c r="F43">
+        <f ca="1"/>
+        <v>398</v>
+      </c>
+      <c r="G43">
+        <f ca="1"/>
+        <v>398</v>
+      </c>
+      <c r="H43">
+        <f ca="1"/>
+        <v>398</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A44" t="str">
+        <f ca="1"/>
+        <v>mean</v>
+      </c>
+      <c r="B44">
+        <f ca="1"/>
+        <v>23.514572864321607</v>
+      </c>
+      <c r="C44">
+        <f ca="1"/>
+        <v>5.4547738693467336</v>
+      </c>
+      <c r="D44">
+        <f ca="1"/>
+        <v>193.42587939698493</v>
+      </c>
+      <c r="E44">
+        <f ca="1"/>
+        <v>104.46938775510205</v>
+      </c>
+      <c r="F44">
+        <f ca="1"/>
+        <v>2970.424623115578</v>
+      </c>
+      <c r="G44">
+        <f ca="1"/>
+        <v>15.568090452261307</v>
+      </c>
+      <c r="H44">
+        <f ca="1"/>
+        <v>76.010050251256288</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A45" t="str">
+        <f ca="1"/>
+        <v>std</v>
+      </c>
+      <c r="B45">
+        <f ca="1"/>
+        <v>7.8159843125657824</v>
+      </c>
+      <c r="C45">
+        <f ca="1"/>
+        <v>1.7010042445332094</v>
+      </c>
+      <c r="D45">
+        <f ca="1"/>
+        <v>104.26983817119581</v>
+      </c>
+      <c r="E45">
+        <f ca="1"/>
+        <v>38.491159932828552</v>
+      </c>
+      <c r="F45">
+        <f ca="1"/>
+        <v>846.84177419732714</v>
+      </c>
+      <c r="G45">
+        <f ca="1"/>
+        <v>2.7576889298126757</v>
+      </c>
+      <c r="H45">
+        <f ca="1"/>
+        <v>3.6976266467326231</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A46" t="str">
+        <f ca="1"/>
+        <v>min</v>
+      </c>
+      <c r="B46">
+        <f ca="1"/>
+        <v>9</v>
+      </c>
+      <c r="C46">
+        <f ca="1"/>
+        <v>3</v>
+      </c>
+      <c r="D46">
+        <f ca="1"/>
+        <v>68</v>
+      </c>
+      <c r="E46">
+        <f ca="1"/>
+        <v>46</v>
+      </c>
+      <c r="F46">
+        <f ca="1"/>
+        <v>1613</v>
+      </c>
+      <c r="G46">
+        <f ca="1"/>
+        <v>8</v>
+      </c>
+      <c r="H46">
+        <f ca="1"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A47" t="str">
+        <f ca="1"/>
+        <v>25%</v>
+      </c>
+      <c r="B47">
+        <f ca="1"/>
+        <v>17.5</v>
+      </c>
+      <c r="C47">
+        <f ca="1"/>
+        <v>4</v>
+      </c>
+      <c r="D47">
+        <f ca="1"/>
+        <v>104.25</v>
+      </c>
+      <c r="E47">
+        <f ca="1"/>
+        <v>75</v>
+      </c>
+      <c r="F47">
+        <f ca="1"/>
+        <v>2223.75</v>
+      </c>
+      <c r="G47">
+        <f ca="1"/>
+        <v>13.825000000000001</v>
+      </c>
+      <c r="H47">
+        <f ca="1"/>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A48" t="str">
+        <f ca="1"/>
+        <v>50%</v>
+      </c>
+      <c r="B48">
+        <f ca="1"/>
+        <v>23</v>
+      </c>
+      <c r="C48">
+        <f ca="1"/>
+        <v>4</v>
+      </c>
+      <c r="D48">
+        <f ca="1"/>
+        <v>148.5</v>
+      </c>
+      <c r="E48">
+        <f ca="1"/>
+        <v>93.5</v>
+      </c>
+      <c r="F48">
+        <f ca="1"/>
+        <v>2803.5</v>
+      </c>
+      <c r="G48">
+        <f ca="1"/>
+        <v>15.5</v>
+      </c>
+      <c r="H48">
+        <f ca="1"/>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A49" t="str">
+        <f ca="1"/>
+        <v>75%</v>
+      </c>
+      <c r="B49">
+        <f ca="1"/>
+        <v>29</v>
+      </c>
+      <c r="C49">
+        <f ca="1"/>
+        <v>8</v>
+      </c>
+      <c r="D49">
+        <f ca="1"/>
+        <v>262</v>
+      </c>
+      <c r="E49">
+        <f ca="1"/>
+        <v>126</v>
+      </c>
+      <c r="F49">
+        <f ca="1"/>
+        <v>3608</v>
+      </c>
+      <c r="G49">
+        <f ca="1"/>
+        <v>17.175000000000001</v>
+      </c>
+      <c r="H49">
+        <f ca="1"/>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A50" t="str">
+        <f ca="1"/>
+        <v>max</v>
+      </c>
+      <c r="B50">
+        <f ca="1"/>
+        <v>46.6</v>
+      </c>
+      <c r="C50">
+        <f ca="1"/>
+        <v>8</v>
+      </c>
+      <c r="D50">
+        <f ca="1"/>
+        <v>455</v>
+      </c>
+      <c r="E50">
+        <f ca="1"/>
+        <v>230</v>
+      </c>
+      <c r="F50">
+        <f ca="1"/>
+        <v>5140</v>
+      </c>
+      <c r="G50">
+        <f ca="1"/>
+        <v>24.8</v>
+      </c>
+      <c r="H50">
+        <f ca="1"/>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A53" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A54" t="e" cm="1" vm="7">
+        <f t="array" aca="1" ref="A54" ca="1">_xlfn._xlws.PY(4,1)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.65">
+      <c r="A73" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.65">
+      <c r="A74" t="e" cm="1" vm="8">
+        <f t="array" aca="1" ref="A74" ca="1">_xlfn._xlws.PY(5,1)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.65">
+      <c r="A93" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.65">
+      <c r="A94" t="e" cm="1" vm="9">
+        <f t="array" aca="1" ref="A94" ca="1">_xlfn._xlws.PY(6,1)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.65">
+      <c r="A113" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.65">
+      <c r="A114" t="e" cm="1" vm="10">
+        <f t="array" aca="1" ref="A114" ca="1">_xlfn._xlws.PY(7,1)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.65">
+      <c r="A133" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.65">
+      <c r="A134" t="e" cm="1" vm="11">
+        <f t="array" aca="1" ref="A134" ca="1">_xlfn._xlws.PY(8,1)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2EE3218-BDB6-48A3-9AC7-358C663A5B36}">
+  <dimension ref="A1:I6"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection sqref="A1:A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="21" zeroHeight="1" x14ac:dyDescent="0.65"/>
+  <cols>
+    <col min="1" max="1" width="75.31640625" customWidth="1"/>
+    <col min="2" max="2" width="3.76953125" customWidth="1"/>
+    <col min="3" max="3" width="42.40625" customWidth="1"/>
+    <col min="4" max="4" width="10.953125" customWidth="1"/>
+    <col min="5" max="5" width="27.6796875" customWidth="1"/>
+    <col min="6" max="6" width="9.04296875" hidden="1" customWidth="1"/>
+    <col min="10" max="16384" width="76.90625" hidden="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="28.5" x14ac:dyDescent="0.85">
+      <c r="A1" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="str" cm="1">
+        <f t="array" aca="1" ref="G1:H1" ca="1">_xlfn._xlws.FILTER(_xlfn.ANCHORARRAY(C3), OFFSET(_xlfn.ANCHORARRAY(C3), -1, ) = TRUE)</f>
+        <v>usa</v>
+      </c>
+      <c r="H1" t="str">
+        <f ca="1"/>
+        <v>europe</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="A2" s="8"/>
+      <c r="C2" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="D2" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="E2" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="G2" t="e" cm="1" vm="12">
+        <f t="array" aca="1" ref="G2" ca="1">_xlfn._xlws.PY(9,1,_xlfn.ANCHORARRAY(G1))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.85">
+      <c r="A3" s="8"/>
+      <c r="C3" s="7" t="str" cm="1">
+        <f t="array" ref="C3:E3">TRANSPOSE(_xlfn.UNIQUE(mpg[origin]))</f>
+        <v>usa</v>
+      </c>
+      <c r="D3" s="7" t="str">
+        <v>japan</v>
+      </c>
+      <c r="E3" s="7" t="str">
+        <v>europe</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="409.5" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="A4" s="5" t="e" cm="1" vm="13">
+        <f t="array" aca="1" ref="A4" ca="1">_xlfn._xlws.PY(10,1)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5" t="e" cm="1" vm="14">
+        <f t="array" aca="1" ref="C4" ca="1">_xlfn._xlws.PY(11,0)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D4" s="5"/>
+    </row>
+    <row r="5" spans="1:8" ht="409.15" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="A5" s="4" t="e" cm="1" vm="15">
+        <f t="array" aca="1" ref="A5" ca="1">_xlfn._xlws.PY(12,0)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4" t="e" cm="1" vm="16">
+        <f t="array" aca="1" ref="C5" ca="1">_xlfn._xlws.PY(13,0)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D5" s="4"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.65"/>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:A3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/python-in-excel-dashboard-copilot-demo.xlsx
+++ b/python-in-excel-dashboard-copilot-demo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GeorgeMount\Documents\GitHub\blog-files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C4DCBC1-69DE-41BF-A66E-D5B73331EAEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA28BF4D-C96A-4FA2-8FA4-77338FC56DF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="18915" windowHeight="12676" xr2:uid="{3B245998-3DB2-4834-90D2-2DE61E41F9BF}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="18915" windowHeight="12676" firstSheet="1" activeTab="1" xr2:uid="{3B245998-3DB2-4834-90D2-2DE61E41F9BF}"/>
   </bookViews>
   <sheets>
     <sheet name="mpg" sheetId="1" r:id="rId1"/>
@@ -49,11 +49,18 @@
       </extLst>
     </bk>
   </futureMetadata>
-  <futureMetadata name="XLRICHVALUE" count="16">
+  <futureMetadata name="XLRICHVALUE" count="15">
     <bk>
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
           <xlrd:rvb i="2"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="6"/>
         </ext>
       </extLst>
     </bk>
@@ -74,63 +81,56 @@
     <bk>
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="4"/>
+          <xlrd:rvb i="10"/>
         </ext>
       </extLst>
     </bk>
     <bk>
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="8"/>
+          <xlrd:rvb i="14"/>
         </ext>
       </extLst>
     </bk>
     <bk>
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="11"/>
+          <xlrd:rvb i="17"/>
         </ext>
       </extLst>
     </bk>
     <bk>
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="15"/>
+          <xlrd:rvb i="21"/>
         </ext>
       </extLst>
     </bk>
     <bk>
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="18"/>
+          <xlrd:rvb i="25"/>
         </ext>
       </extLst>
     </bk>
     <bk>
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="22"/>
+          <xlrd:rvb i="29"/>
         </ext>
       </extLst>
     </bk>
     <bk>
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="26"/>
+          <xlrd:rvb i="31"/>
         </ext>
       </extLst>
     </bk>
     <bk>
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="30"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="32"/>
+          <xlrd:rvb i="34"/>
         </ext>
       </extLst>
     </bk>
@@ -144,21 +144,14 @@
     <bk>
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="36"/>
+          <xlrd:rvb i="38"/>
         </ext>
       </extLst>
     </bk>
     <bk>
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="37"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="38"/>
+          <xlrd:rvb i="39"/>
         </ext>
       </extLst>
     </bk>
@@ -168,7 +161,7 @@
       <rc t="1" v="0"/>
     </bk>
   </cellMetadata>
-  <valueMetadata count="16">
+  <valueMetadata count="15">
     <bk>
       <rc t="2" v="0"/>
     </bk>
@@ -213,9 +206,6 @@
     </bk>
     <bk>
       <rc t="2" v="14"/>
-    </bk>
-    <bk>
-      <rc t="2" v="15"/>
     </bk>
   </valueMetadata>
 </metadata>
@@ -986,10 +976,10 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1377,15 +1367,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>59532</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>261938</xdr:rowOff>
+      <xdr:rowOff>297657</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>20399</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>7854712</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>54303</xdr:rowOff>
+      <xdr:rowOff>90022</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1413,7 +1403,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="59532" y="6965158"/>
+          <a:off x="0" y="7000877"/>
           <a:ext cx="7854712" cy="4983490"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1694,7 +1684,7 @@
     <v t="s">usa</v>
   </a>
   <a r="2">
-    <v t="r">4</v>
+    <v t="r">3</v>
     <v t="s">&lt;DataFrame&gt;</v>
   </a>
   <a r="9" c="8">
@@ -1791,7 +1781,7 @@
 </file>
 
 <file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
-<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="39">
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="40">
   <rv s="0">
     <v>0</v>
   </rv>
@@ -1811,9 +1801,6 @@
     <v>2</v>
   </rv>
   <rv s="3">
-    <v>14</v>
-  </rv>
-  <rv s="4">
     <fb>0</fb>
     <v>5</v>
   </rv>
@@ -1823,7 +1810,7 @@
   <rv s="1">
     <v>tuple</v>
     <v>4</v>
-    <v>5</v>
+    <v>4</v>
   </rv>
   <rv s="2">
     <v>&lt;class 'tuple'&gt;</v>
@@ -1832,7 +1819,7 @@
 count  398.000000  398.000000    398.000000  392.000000   398.000000   
 mean    23.514573    5.454774    193.425879  104.469388  2970.424623   
 std      7.815984    1.701004...</v>
-    <v>6</v>
+    <v>5</v>
     <v>2</v>
   </rv>
   <rv s="2">
@@ -1840,7 +1827,7 @@
     <v>&lt;class 'NoneType'&gt;</v>
     <v>NoneType</v>
     <v>None</v>
-    <v>4</v>
+    <v>3</v>
     <v>2</v>
   </rv>
   <rv s="0">
@@ -1849,7 +1836,7 @@
   <rv s="1">
     <v>DataFrame</v>
     <v>7</v>
-    <v>9</v>
+    <v>8</v>
   </rv>
   <rv s="2">
     <v>&lt;class 'pandas.core.frame.DataFrame'&gt;</v>
@@ -1858,104 +1845,104 @@
 count  398.000000  398.000000    398.000000  392.000000   398.000000   
 mean    23.514573    5.454774    193.425879  104.469388  2970.424623   
 std      7.815984    1.701004    104...</v>
-    <v>10</v>
+    <v>9</v>
     <v>2</v>
   </rv>
-  <rv s="5">
+  <rv s="4">
     <v>0</v>
     <v>9</v>
   </rv>
   <rv s="0">
     <v>3</v>
   </rv>
-  <rv s="6">
+  <rv s="5">
     <v>Image</v>
     <v>8</v>
+    <v>11</v>
     <v>12</v>
-    <v>13</v>
   </rv>
   <rv s="2">
     <v>&lt;class 'PIL.PngImagePlugin.PngImageFile'&gt;</v>
     <v>PngImageFile</v>
-    <v>&lt;PIL.PngImagePlugin.PngImageFile image mode=RGBA size=842x545 at 0x7FA0030DEBD0&gt;</v>
-    <v>14</v>
+    <v>&lt;PIL.PngImagePlugin.PngImageFile image mode=RGBA size=842x545 at 0x7FF472C69160&gt;</v>
+    <v>13</v>
     <v>2</v>
   </rv>
-  <rv s="5">
+  <rv s="4">
     <v>1</v>
     <v>9</v>
   </rv>
-  <rv s="6">
+  <rv s="5">
     <v>Image</v>
     <v>8</v>
-    <v>16</v>
-    <v>13</v>
+    <v>15</v>
+    <v>12</v>
   </rv>
   <rv s="2">
     <v>&lt;class 'PIL.PngImagePlugin.PngImageFile'&gt;</v>
     <v>PngImageFile</v>
-    <v>&lt;PIL.PngImagePlugin.PngImageFile image mode=RGBA size=842x545 at 0x7FA005D48830&gt;</v>
-    <v>17</v>
+    <v>&lt;PIL.PngImagePlugin.PngImageFile image mode=RGBA size=842x545 at 0x7FF4670F5760&gt;</v>
+    <v>16</v>
     <v>2</v>
   </rv>
-  <rv s="5">
+  <rv s="4">
     <v>2</v>
     <v>9</v>
   </rv>
   <rv s="0">
     <v>4</v>
   </rv>
-  <rv s="6">
+  <rv s="5">
     <v>Image</v>
     <v>8</v>
+    <v>18</v>
     <v>19</v>
-    <v>20</v>
   </rv>
   <rv s="2">
     <v>&lt;class 'PIL.PngImagePlugin.PngImageFile'&gt;</v>
     <v>PngImageFile</v>
-    <v>&lt;PIL.PngImagePlugin.PngImageFile image mode=RGBA size=859x545 at 0x7FA00446B830&gt;</v>
-    <v>21</v>
+    <v>&lt;PIL.PngImagePlugin.PngImageFile image mode=RGBA size=859x545 at 0x7FF467088260&gt;</v>
+    <v>20</v>
     <v>2</v>
   </rv>
-  <rv s="5">
+  <rv s="4">
     <v>3</v>
     <v>9</v>
   </rv>
   <rv s="0">
     <v>5</v>
   </rv>
-  <rv s="6">
+  <rv s="5">
     <v>Image</v>
     <v>8</v>
+    <v>22</v>
     <v>23</v>
-    <v>24</v>
   </rv>
   <rv s="2">
     <v>&lt;class 'PIL.PngImagePlugin.PngImageFile'&gt;</v>
     <v>PngImageFile</v>
-    <v>&lt;PIL.PngImagePlugin.PngImageFile image mode=RGBA size=1475x1476 at 0x7FA0030A6B70&gt;</v>
-    <v>25</v>
+    <v>&lt;PIL.PngImagePlugin.PngImageFile image mode=RGBA size=1475x1476 at 0x7FF4670484A0&gt;</v>
+    <v>24</v>
     <v>2</v>
   </rv>
-  <rv s="5">
+  <rv s="4">
     <v>4</v>
     <v>9</v>
   </rv>
   <rv s="0">
     <v>6</v>
   </rv>
-  <rv s="6">
+  <rv s="5">
     <v>Image</v>
     <v>8</v>
+    <v>26</v>
     <v>27</v>
-    <v>28</v>
   </rv>
   <rv s="2">
     <v>&lt;class 'PIL.PngImagePlugin.PngImageFile'&gt;</v>
     <v>PngImageFile</v>
-    <v>&lt;PIL.PngImagePlugin.PngImageFile image mode=RGBA size=857x526 at 0x7FA0042FDB80&gt;</v>
-    <v>29</v>
+    <v>&lt;PIL.PngImagePlugin.PngImageFile image mode=RGBA size=857x526 at 0x7FF468C5EC00&gt;</v>
+    <v>28</v>
     <v>2</v>
   </rv>
   <rv s="1">
@@ -1970,37 +1957,49 @@
 0    18.0          8         307.0       130.0    3504          12.0   
 1    15.0          8         350.0       165.0    3693          11.5   
 2    18.0          8         318.0  ...</v>
-    <v>31</v>
+    <v>30</v>
     <v>2</v>
   </rv>
-  <rv s="5">
+  <rv s="4">
     <v>5</v>
     <v>9</v>
   </rv>
-  <rv s="6">
+  <rv s="5">
     <v>Image</v>
     <v>8</v>
-    <v>33</v>
-    <v>13</v>
+    <v>32</v>
+    <v>12</v>
   </rv>
   <rv s="2">
     <v>&lt;class 'PIL.PngImagePlugin.PngImageFile'&gt;</v>
     <v>PngImageFile</v>
-    <v>&lt;PIL.PngImagePlugin.PngImageFile image mode=RGBA size=842x545 at 0x7FA007888EF0&gt;</v>
-    <v>34</v>
+    <v>&lt;PIL.PngImagePlugin.PngImageFile image mode=RGBA size=842x545 at 0x7FF46A909520&gt;</v>
+    <v>33</v>
     <v>2</v>
   </rv>
-  <rv s="7">
+  <rv s="6">
     <v>6</v>
     <v>9</v>
     <v>Image generated by Python</v>
   </rv>
-  <rv s="7">
+  <rv s="4">
     <v>7</v>
     <v>9</v>
-    <v>Image generated by Python</v>
   </rv>
-  <rv s="7">
+  <rv s="5">
+    <v>Image</v>
+    <v>8</v>
+    <v>36</v>
+    <v>19</v>
+  </rv>
+  <rv s="2">
+    <v>&lt;class 'PIL.PngImagePlugin.PngImageFile'&gt;</v>
+    <v>PngImageFile</v>
+    <v>&lt;PIL.PngImagePlugin.PngImageFile image mode=RGBA size=859x545 at 0x7FF467EB5970&gt;</v>
+    <v>37</v>
+    <v>2</v>
+  </rv>
+  <rv s="6">
     <v>8</v>
     <v>9</v>
     <v>Image generated by Python</v>
@@ -2009,7 +2008,7 @@
 </file>
 
 <file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
-<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="8">
+<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="7">
   <s t="_array">
     <k n="array" t="a"/>
   </s>
@@ -2024,9 +2023,6 @@
     <k n="Python_str" t="s"/>
     <k n="preview" t="r"/>
     <k n="_Provider" t="spb"/>
-  </s>
-  <s t="_error">
-    <k n="errorType" t="i"/>
   </s>
   <s t="_formattednumber">
     <k n="_Format" t="spb"/>
@@ -2489,7 +2485,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H399"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.65"/>
   <cols>
@@ -12868,7 +12864,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E08C75C-741E-4F75-98E0-43D7945301A8}">
   <dimension ref="A1:I134"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.65"/>
   <sheetData>
@@ -12889,7 +12885,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.65">
       <c r="A6" t="e" cm="1" vm="1">
-        <f t="array" aca="1" ref="A6" ca="1">_xlfn._xlws.PY(0,1,mpg[[#Headers],[#Data]])</f>
+        <f t="array" ref="A6">_xlfn._xlws.PY(0,1,mpg[[#Headers],[#Data]])</f>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -12900,457 +12896,350 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.65">
       <c r="A9" t="str" cm="1">
-        <f t="array" aca="1" ref="A9:I20" ca="1">IFERROR(_FV(A6,"arrayPreview"),_xlfn._DF_Python_str(A6))</f>
+        <f t="array" ref="A9:I20">IFERROR(_FV(A6,"arrayPreview"),_xlfn._DF_Python_str(A6))</f>
         <v/>
       </c>
       <c r="B9" t="str">
-        <f ca="1"/>
         <v>mpg</v>
       </c>
       <c r="C9" t="str">
-        <f ca="1"/>
         <v>cylinders</v>
       </c>
       <c r="D9" t="str">
-        <f ca="1"/>
         <v>displacement</v>
       </c>
       <c r="E9" t="str">
-        <f ca="1"/>
         <v>horsepower</v>
       </c>
       <c r="F9" t="str">
-        <f ca="1"/>
         <v>weight</v>
       </c>
       <c r="G9" t="str">
-        <f ca="1"/>
         <v>acceleration</v>
       </c>
       <c r="H9" t="str">
-        <f ca="1"/>
         <v>model_year</v>
       </c>
       <c r="I9" t="str">
-        <f ca="1"/>
         <v>origin</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.65">
       <c r="A10">
-        <f ca="1"/>
         <v>0</v>
       </c>
       <c r="B10">
-        <f ca="1"/>
         <v>18</v>
       </c>
       <c r="C10">
-        <f ca="1"/>
         <v>8</v>
       </c>
       <c r="D10">
-        <f ca="1"/>
         <v>307</v>
       </c>
       <c r="E10">
-        <f ca="1"/>
         <v>130</v>
       </c>
       <c r="F10">
-        <f ca="1"/>
         <v>3504</v>
       </c>
       <c r="G10">
-        <f ca="1"/>
         <v>12</v>
       </c>
       <c r="H10">
-        <f ca="1"/>
         <v>70</v>
       </c>
       <c r="I10" t="str">
-        <f ca="1"/>
         <v>usa</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.65">
       <c r="A11">
-        <f ca="1"/>
         <v>1</v>
       </c>
       <c r="B11">
-        <f ca="1"/>
         <v>15</v>
       </c>
       <c r="C11">
-        <f ca="1"/>
         <v>8</v>
       </c>
       <c r="D11">
-        <f ca="1"/>
         <v>350</v>
       </c>
       <c r="E11">
-        <f ca="1"/>
         <v>165</v>
       </c>
       <c r="F11">
-        <f ca="1"/>
         <v>3693</v>
       </c>
       <c r="G11">
-        <f ca="1"/>
         <v>11.5</v>
       </c>
       <c r="H11">
-        <f ca="1"/>
         <v>70</v>
       </c>
       <c r="I11" t="str">
-        <f ca="1"/>
         <v>usa</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.65">
       <c r="A12">
-        <f ca="1"/>
         <v>2</v>
       </c>
       <c r="B12">
-        <f ca="1"/>
         <v>18</v>
       </c>
       <c r="C12">
-        <f ca="1"/>
         <v>8</v>
       </c>
       <c r="D12">
-        <f ca="1"/>
         <v>318</v>
       </c>
       <c r="E12">
-        <f ca="1"/>
         <v>150</v>
       </c>
       <c r="F12">
-        <f ca="1"/>
         <v>3436</v>
       </c>
       <c r="G12">
-        <f ca="1"/>
         <v>11</v>
       </c>
       <c r="H12">
-        <f ca="1"/>
         <v>70</v>
       </c>
       <c r="I12" t="str">
-        <f ca="1"/>
         <v>usa</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.65">
       <c r="A13">
-        <f ca="1"/>
         <v>3</v>
       </c>
       <c r="B13">
-        <f ca="1"/>
         <v>16</v>
       </c>
       <c r="C13">
-        <f ca="1"/>
         <v>8</v>
       </c>
       <c r="D13">
-        <f ca="1"/>
         <v>304</v>
       </c>
       <c r="E13">
-        <f ca="1"/>
         <v>150</v>
       </c>
       <c r="F13">
-        <f ca="1"/>
         <v>3433</v>
       </c>
       <c r="G13">
-        <f ca="1"/>
         <v>12</v>
       </c>
       <c r="H13">
-        <f ca="1"/>
         <v>70</v>
       </c>
       <c r="I13" t="str">
-        <f ca="1"/>
         <v>usa</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.65">
       <c r="A14">
-        <f ca="1"/>
         <v>4</v>
       </c>
       <c r="B14">
-        <f ca="1"/>
         <v>17</v>
       </c>
       <c r="C14">
-        <f ca="1"/>
         <v>8</v>
       </c>
       <c r="D14">
-        <f ca="1"/>
         <v>302</v>
       </c>
       <c r="E14">
-        <f ca="1"/>
         <v>140</v>
       </c>
       <c r="F14">
-        <f ca="1"/>
         <v>3449</v>
       </c>
       <c r="G14">
-        <f ca="1"/>
         <v>10.5</v>
       </c>
       <c r="H14">
-        <f ca="1"/>
         <v>70</v>
       </c>
       <c r="I14" t="str">
-        <f ca="1"/>
         <v>usa</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.65">
       <c r="A15" t="str">
-        <f ca="1"/>
         <v>...</v>
       </c>
       <c r="B15" t="str">
-        <f ca="1"/>
         <v>...</v>
       </c>
       <c r="C15" t="str">
-        <f ca="1"/>
         <v>...</v>
       </c>
       <c r="D15" t="str">
-        <f ca="1"/>
         <v>...</v>
       </c>
       <c r="E15" t="str">
-        <f ca="1"/>
         <v>...</v>
       </c>
       <c r="F15" t="str">
-        <f ca="1"/>
         <v>...</v>
       </c>
       <c r="G15" t="str">
-        <f ca="1"/>
         <v>...</v>
       </c>
       <c r="H15" t="str">
-        <f ca="1"/>
         <v>...</v>
       </c>
       <c r="I15" t="str">
-        <f ca="1"/>
         <v>...</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.65">
       <c r="A16">
-        <f ca="1"/>
         <v>393</v>
       </c>
       <c r="B16">
-        <f ca="1"/>
         <v>27</v>
       </c>
       <c r="C16">
-        <f ca="1"/>
         <v>4</v>
       </c>
       <c r="D16">
-        <f ca="1"/>
         <v>140</v>
       </c>
       <c r="E16">
-        <f ca="1"/>
         <v>86</v>
       </c>
       <c r="F16">
-        <f ca="1"/>
         <v>2790</v>
       </c>
       <c r="G16">
-        <f ca="1"/>
         <v>15.6</v>
       </c>
       <c r="H16">
-        <f ca="1"/>
         <v>82</v>
       </c>
       <c r="I16" t="str">
-        <f ca="1"/>
         <v>usa</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.65">
       <c r="A17">
-        <f ca="1"/>
         <v>394</v>
       </c>
       <c r="B17">
-        <f ca="1"/>
         <v>44</v>
       </c>
       <c r="C17">
-        <f ca="1"/>
         <v>4</v>
       </c>
       <c r="D17">
-        <f ca="1"/>
         <v>97</v>
       </c>
       <c r="E17">
-        <f ca="1"/>
         <v>52</v>
       </c>
       <c r="F17">
-        <f ca="1"/>
         <v>2130</v>
       </c>
       <c r="G17">
-        <f ca="1"/>
         <v>24.6</v>
       </c>
       <c r="H17">
-        <f ca="1"/>
         <v>82</v>
       </c>
       <c r="I17" t="str">
-        <f ca="1"/>
         <v>europe</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.65">
       <c r="A18">
-        <f ca="1"/>
         <v>395</v>
       </c>
       <c r="B18">
-        <f ca="1"/>
         <v>32</v>
       </c>
       <c r="C18">
-        <f ca="1"/>
         <v>4</v>
       </c>
       <c r="D18">
-        <f ca="1"/>
         <v>135</v>
       </c>
       <c r="E18">
-        <f ca="1"/>
         <v>84</v>
       </c>
       <c r="F18">
-        <f ca="1"/>
         <v>2295</v>
       </c>
       <c r="G18">
-        <f ca="1"/>
         <v>11.6</v>
       </c>
       <c r="H18">
-        <f ca="1"/>
         <v>82</v>
       </c>
       <c r="I18" t="str">
-        <f ca="1"/>
         <v>usa</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.65">
       <c r="A19">
-        <f ca="1"/>
         <v>396</v>
       </c>
       <c r="B19">
-        <f ca="1"/>
         <v>28</v>
       </c>
       <c r="C19">
-        <f ca="1"/>
         <v>4</v>
       </c>
       <c r="D19">
-        <f ca="1"/>
         <v>120</v>
       </c>
       <c r="E19">
-        <f ca="1"/>
         <v>79</v>
       </c>
       <c r="F19">
-        <f ca="1"/>
         <v>2625</v>
       </c>
       <c r="G19">
-        <f ca="1"/>
         <v>18.600000000000001</v>
       </c>
       <c r="H19">
-        <f ca="1"/>
         <v>82</v>
       </c>
       <c r="I19" t="str">
-        <f ca="1"/>
         <v>usa</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.65">
       <c r="A20">
-        <f ca="1"/>
         <v>397</v>
       </c>
       <c r="B20">
-        <f ca="1"/>
         <v>31</v>
       </c>
       <c r="C20">
-        <f ca="1"/>
         <v>4</v>
       </c>
       <c r="D20">
-        <f ca="1"/>
         <v>119</v>
       </c>
       <c r="E20">
-        <f ca="1"/>
         <v>82</v>
       </c>
       <c r="F20">
-        <f ca="1"/>
         <v>2720</v>
       </c>
       <c r="G20">
-        <f ca="1"/>
         <v>19.399999999999999</v>
       </c>
       <c r="H20">
-        <f ca="1"/>
         <v>82</v>
       </c>
       <c r="I20" t="str">
-        <f ca="1"/>
         <v>usa</v>
       </c>
     </row>
@@ -13360,8 +13249,8 @@
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.65">
-      <c r="A24" t="e" cm="1" vm="3">
-        <f t="array" aca="1" ref="A24" ca="1">_xlfn._xlws.PY(1,1)</f>
+      <c r="A24" t="e" cm="1" vm="2">
+        <f t="array" ref="A24">_xlfn._xlws.PY(1,1)</f>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -13371,14 +13260,13 @@
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.65">
-      <c r="A27" cm="1" vm="4">
-        <f t="array" aca="1" ref="A27:A28" ca="1">IFERROR(_FV(A24,"arrayPreview"),_xlfn._DF_Python_str(A24))</f>
+      <c r="A27" cm="1" vm="3">
+        <f t="array" ref="A27:A28">IFERROR(_FV(A24,"arrayPreview"),_xlfn._DF_Python_str(A24))</f>
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.65">
       <c r="A28" t="str">
-        <f ca="1"/>
         <v>&lt;DataFrame&gt;</v>
       </c>
     </row>
@@ -13388,8 +13276,8 @@
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.65">
-      <c r="A32" cm="1" vm="5">
-        <f t="array" aca="1" ref="A32" ca="1">_xlfn._xlws.PY(2,1)</f>
+      <c r="A32" cm="1" vm="4">
+        <f t="array" ref="A32">_xlfn._xlws.PY(2,1)</f>
         <v>0</v>
       </c>
     </row>
@@ -13400,7 +13288,7 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A35" t="str" cm="1">
-        <f t="array" aca="1" ref="A35" ca="1">IFERROR(_FV(A32,"arrayPreview"),_xlfn._DF_Python_str(A32))</f>
+        <f t="array" ref="A35">IFERROR(_FV(A32,"arrayPreview"),_xlfn._DF_Python_str(A32))</f>
         <v>None</v>
       </c>
     </row>
@@ -13410,8 +13298,8 @@
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A39" t="e" cm="1" vm="6">
-        <f t="array" aca="1" ref="A39" ca="1">_xlfn._xlws.PY(3,1)</f>
+      <c r="A39" t="e" cm="1" vm="5">
+        <f t="array" ref="A39">_xlfn._xlws.PY(3,1)</f>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -13422,307 +13310,236 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A42" t="str" cm="1">
-        <f t="array" aca="1" ref="A42:H50" ca="1">IFERROR(_FV(A39,"arrayPreview"),_xlfn._DF_Python_str(A39))</f>
+        <f t="array" ref="A42:H50">IFERROR(_FV(A39,"arrayPreview"),_xlfn._DF_Python_str(A39))</f>
         <v/>
       </c>
       <c r="B42" t="str">
-        <f ca="1"/>
         <v>mpg</v>
       </c>
       <c r="C42" t="str">
-        <f ca="1"/>
         <v>cylinders</v>
       </c>
       <c r="D42" t="str">
-        <f ca="1"/>
         <v>displacement</v>
       </c>
       <c r="E42" t="str">
-        <f ca="1"/>
         <v>horsepower</v>
       </c>
       <c r="F42" t="str">
-        <f ca="1"/>
         <v>weight</v>
       </c>
       <c r="G42" t="str">
-        <f ca="1"/>
         <v>acceleration</v>
       </c>
       <c r="H42" t="str">
-        <f ca="1"/>
         <v>model_year</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A43" t="str">
-        <f ca="1"/>
         <v>count</v>
       </c>
       <c r="B43">
-        <f ca="1"/>
         <v>398</v>
       </c>
       <c r="C43">
-        <f ca="1"/>
         <v>398</v>
       </c>
       <c r="D43">
-        <f ca="1"/>
         <v>398</v>
       </c>
       <c r="E43">
-        <f ca="1"/>
         <v>392</v>
       </c>
       <c r="F43">
-        <f ca="1"/>
         <v>398</v>
       </c>
       <c r="G43">
-        <f ca="1"/>
         <v>398</v>
       </c>
       <c r="H43">
-        <f ca="1"/>
         <v>398</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A44" t="str">
-        <f ca="1"/>
         <v>mean</v>
       </c>
       <c r="B44">
-        <f ca="1"/>
         <v>23.514572864321607</v>
       </c>
       <c r="C44">
-        <f ca="1"/>
         <v>5.4547738693467336</v>
       </c>
       <c r="D44">
-        <f ca="1"/>
         <v>193.42587939698493</v>
       </c>
       <c r="E44">
-        <f ca="1"/>
         <v>104.46938775510205</v>
       </c>
       <c r="F44">
-        <f ca="1"/>
         <v>2970.424623115578</v>
       </c>
       <c r="G44">
-        <f ca="1"/>
         <v>15.568090452261307</v>
       </c>
       <c r="H44">
-        <f ca="1"/>
         <v>76.010050251256288</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A45" t="str">
-        <f ca="1"/>
         <v>std</v>
       </c>
       <c r="B45">
-        <f ca="1"/>
         <v>7.8159843125657824</v>
       </c>
       <c r="C45">
-        <f ca="1"/>
         <v>1.7010042445332094</v>
       </c>
       <c r="D45">
-        <f ca="1"/>
         <v>104.26983817119581</v>
       </c>
       <c r="E45">
-        <f ca="1"/>
         <v>38.491159932828552</v>
       </c>
       <c r="F45">
-        <f ca="1"/>
         <v>846.84177419732714</v>
       </c>
       <c r="G45">
-        <f ca="1"/>
         <v>2.7576889298126757</v>
       </c>
       <c r="H45">
-        <f ca="1"/>
         <v>3.6976266467326231</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A46" t="str">
-        <f ca="1"/>
         <v>min</v>
       </c>
       <c r="B46">
-        <f ca="1"/>
         <v>9</v>
       </c>
       <c r="C46">
-        <f ca="1"/>
         <v>3</v>
       </c>
       <c r="D46">
-        <f ca="1"/>
         <v>68</v>
       </c>
       <c r="E46">
-        <f ca="1"/>
         <v>46</v>
       </c>
       <c r="F46">
-        <f ca="1"/>
         <v>1613</v>
       </c>
       <c r="G46">
-        <f ca="1"/>
         <v>8</v>
       </c>
       <c r="H46">
-        <f ca="1"/>
         <v>70</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A47" t="str">
-        <f ca="1"/>
         <v>25%</v>
       </c>
       <c r="B47">
-        <f ca="1"/>
         <v>17.5</v>
       </c>
       <c r="C47">
-        <f ca="1"/>
         <v>4</v>
       </c>
       <c r="D47">
-        <f ca="1"/>
         <v>104.25</v>
       </c>
       <c r="E47">
-        <f ca="1"/>
         <v>75</v>
       </c>
       <c r="F47">
-        <f ca="1"/>
         <v>2223.75</v>
       </c>
       <c r="G47">
-        <f ca="1"/>
         <v>13.825000000000001</v>
       </c>
       <c r="H47">
-        <f ca="1"/>
         <v>73</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A48" t="str">
-        <f ca="1"/>
         <v>50%</v>
       </c>
       <c r="B48">
-        <f ca="1"/>
         <v>23</v>
       </c>
       <c r="C48">
-        <f ca="1"/>
         <v>4</v>
       </c>
       <c r="D48">
-        <f ca="1"/>
         <v>148.5</v>
       </c>
       <c r="E48">
-        <f ca="1"/>
         <v>93.5</v>
       </c>
       <c r="F48">
-        <f ca="1"/>
         <v>2803.5</v>
       </c>
       <c r="G48">
-        <f ca="1"/>
         <v>15.5</v>
       </c>
       <c r="H48">
-        <f ca="1"/>
         <v>76</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A49" t="str">
-        <f ca="1"/>
         <v>75%</v>
       </c>
       <c r="B49">
-        <f ca="1"/>
         <v>29</v>
       </c>
       <c r="C49">
-        <f ca="1"/>
         <v>8</v>
       </c>
       <c r="D49">
-        <f ca="1"/>
         <v>262</v>
       </c>
       <c r="E49">
-        <f ca="1"/>
         <v>126</v>
       </c>
       <c r="F49">
-        <f ca="1"/>
         <v>3608</v>
       </c>
       <c r="G49">
-        <f ca="1"/>
         <v>17.175000000000001</v>
       </c>
       <c r="H49">
-        <f ca="1"/>
         <v>79</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A50" t="str">
-        <f ca="1"/>
         <v>max</v>
       </c>
       <c r="B50">
-        <f ca="1"/>
         <v>46.6</v>
       </c>
       <c r="C50">
-        <f ca="1"/>
         <v>8</v>
       </c>
       <c r="D50">
-        <f ca="1"/>
         <v>455</v>
       </c>
       <c r="E50">
-        <f ca="1"/>
         <v>230</v>
       </c>
       <c r="F50">
-        <f ca="1"/>
         <v>5140</v>
       </c>
       <c r="G50">
-        <f ca="1"/>
         <v>24.8</v>
       </c>
       <c r="H50">
-        <f ca="1"/>
         <v>82</v>
       </c>
     </row>
@@ -13732,8 +13549,8 @@
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A54" t="e" cm="1" vm="7">
-        <f t="array" aca="1" ref="A54" ca="1">_xlfn._xlws.PY(4,1)</f>
+      <c r="A54" t="e" cm="1" vm="6">
+        <f t="array" ref="A54">_xlfn._xlws.PY(4,1)</f>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -13743,8 +13560,8 @@
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.65">
-      <c r="A74" t="e" cm="1" vm="8">
-        <f t="array" aca="1" ref="A74" ca="1">_xlfn._xlws.PY(5,1)</f>
+      <c r="A74" t="e" cm="1" vm="7">
+        <f t="array" ref="A74">_xlfn._xlws.PY(5,1)</f>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -13754,8 +13571,8 @@
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.65">
-      <c r="A94" t="e" cm="1" vm="9">
-        <f t="array" aca="1" ref="A94" ca="1">_xlfn._xlws.PY(6,1)</f>
+      <c r="A94" t="e" cm="1" vm="8">
+        <f t="array" ref="A94">_xlfn._xlws.PY(6,1)</f>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -13765,8 +13582,8 @@
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.65">
-      <c r="A114" t="e" cm="1" vm="10">
-        <f t="array" aca="1" ref="A114" ca="1">_xlfn._xlws.PY(7,1)</f>
+      <c r="A114" t="e" cm="1" vm="9">
+        <f t="array" ref="A114">_xlfn._xlws.PY(7,1)</f>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -13776,8 +13593,8 @@
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.65">
-      <c r="A134" t="e" cm="1" vm="11">
-        <f t="array" aca="1" ref="A134" ca="1">_xlfn._xlws.PY(8,1)</f>
+      <c r="A134" t="e" cm="1" vm="10">
+        <f t="array" ref="A134">_xlfn._xlws.PY(8,1)</f>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -13792,7 +13609,7 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection sqref="A1:A3"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="21" zeroHeight="1" x14ac:dyDescent="0.65"/>
@@ -13803,14 +13620,15 @@
     <col min="4" max="4" width="10.953125" customWidth="1"/>
     <col min="5" max="5" width="27.6796875" customWidth="1"/>
     <col min="6" max="6" width="9.04296875" hidden="1" customWidth="1"/>
+    <col min="7" max="9" width="0" hidden="1" customWidth="1"/>
     <col min="10" max="16384" width="76.90625" hidden="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="28.5" x14ac:dyDescent="0.85">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="8" t="s">
         <v>24</v>
       </c>
       <c r="G1" t="str" cm="1">
@@ -13823,7 +13641,7 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A2" s="8"/>
+      <c r="A2" s="9"/>
       <c r="C2" s="6" t="b">
         <v>1</v>
       </c>
@@ -13833,13 +13651,13 @@
       <c r="E2" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="G2" t="e" cm="1" vm="12">
+      <c r="G2" t="e" cm="1" vm="11">
         <f t="array" aca="1" ref="G2" ca="1">_xlfn._xlws.PY(9,1,_xlfn.ANCHORARRAY(G1))</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.85">
-      <c r="A3" s="8"/>
+      <c r="A3" s="9"/>
       <c r="C3" s="7" t="str" cm="1">
         <f t="array" ref="C3:E3">TRANSPOSE(_xlfn.UNIQUE(mpg[origin]))</f>
         <v>usa</v>
@@ -13852,24 +13670,24 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="409.5" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A4" s="5" t="e" cm="1" vm="13">
+      <c r="A4" s="5" t="e" cm="1" vm="12">
         <f t="array" aca="1" ref="A4" ca="1">_xlfn._xlws.PY(10,1)</f>
         <v>#VALUE!</v>
       </c>
       <c r="B4" s="5"/>
-      <c r="C4" s="5" t="e" cm="1" vm="14">
+      <c r="C4" s="5" t="e" cm="1" vm="13">
         <f t="array" aca="1" ref="C4" ca="1">_xlfn._xlws.PY(11,0)</f>
         <v>#VALUE!</v>
       </c>
       <c r="D4" s="5"/>
     </row>
     <row r="5" spans="1:8" ht="409.15" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A5" s="4" t="e" cm="1" vm="15">
-        <f t="array" aca="1" ref="A5" ca="1">_xlfn._xlws.PY(12,0)</f>
+      <c r="A5" s="4" t="e" cm="1" vm="14">
+        <f t="array" aca="1" ref="A5" ca="1">_xlfn._xlws.PY(12,1)</f>
         <v>#VALUE!</v>
       </c>
       <c r="B5" s="4"/>
-      <c r="C5" s="4" t="e" cm="1" vm="16">
+      <c r="C5" s="4" t="e" cm="1" vm="15">
         <f t="array" aca="1" ref="C5" ca="1">_xlfn._xlws.PY(13,0)</f>
         <v>#VALUE!</v>
       </c>

--- a/python-in-excel-dashboard-copilot-demo.xlsx
+++ b/python-in-excel-dashboard-copilot-demo.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GeorgeMount\Documents\GitHub\blog-files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA28BF4D-C96A-4FA2-8FA4-77338FC56DF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EC6BA49-1F57-40AC-8F12-994E42084189}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="18915" windowHeight="12676" firstSheet="1" activeTab="1" xr2:uid="{3B245998-3DB2-4834-90D2-2DE61E41F9BF}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="18915" windowHeight="12676" activeTab="3" xr2:uid="{3B245998-3DB2-4834-90D2-2DE61E41F9BF}"/>
   </bookViews>
   <sheets>
     <sheet name="mpg" sheetId="1" r:id="rId1"/>
     <sheet name="Analysis1" sheetId="2" r:id="rId2"/>
-    <sheet name="dashboard" sheetId="3" r:id="rId3"/>
+    <sheet name="dashboard" sheetId="5" r:id="rId3"/>
+    <sheet name="dashboard-done" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -49,7 +50,7 @@
       </extLst>
     </bk>
   </futureMetadata>
-  <futureMetadata name="XLRICHVALUE" count="15">
+  <futureMetadata name="XLRICHVALUE" count="9">
     <bk>
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
@@ -67,13 +68,6 @@
     <bk>
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="3"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
           <xlrd:rvb i="7"/>
         </ext>
       </extLst>
@@ -81,14 +75,28 @@
     <bk>
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="10"/>
+          <xlrd:rvb i="11"/>
         </ext>
       </extLst>
     </bk>
     <bk>
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="14"/>
+          <xlrd:rvb i="12"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="13"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="16"/>
         </ext>
       </extLst>
     </bk>
@@ -106,62 +114,13 @@
         </ext>
       </extLst>
     </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="25"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="29"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="31"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="34"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="35"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="38"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="39"/>
-        </ext>
-      </extLst>
-    </bk>
   </futureMetadata>
   <cellMetadata count="1">
     <bk>
       <rc t="1" v="0"/>
     </bk>
   </cellMetadata>
-  <valueMetadata count="15">
+  <valueMetadata count="9">
     <bk>
       <rc t="2" v="0"/>
     </bk>
@@ -189,24 +148,6 @@
     <bk>
       <rc t="2" v="8"/>
     </bk>
-    <bk>
-      <rc t="2" v="9"/>
-    </bk>
-    <bk>
-      <rc t="2" v="10"/>
-    </bk>
-    <bk>
-      <rc t="2" v="11"/>
-    </bk>
-    <bk>
-      <rc t="2" v="12"/>
-    </bk>
-    <bk>
-      <rc t="2" v="13"/>
-    </bk>
-    <bk>
-      <rc t="2" v="14"/>
-    </bk>
   </valueMetadata>
 </metadata>
 </file>
@@ -233,18 +174,6 @@
       <code>mpg_df=xl(%P2%, headers=True)</code>
     </pythonScript>
     <pythonScript>
-      <code>#Explore the dataset
-mpg_df.info(), mpg_df.describe()</code>
-    </pythonScript>
-    <pythonScript>
-      <code>#Dataset Information
-mpg_df.info()</code>
-    </pythonScript>
-    <pythonScript>
-      <code>#Summary Statistics
-mpg_df.describe()</code>
-    </pythonScript>
-    <pythonScript>
       <code>#Histogram of MPG
 # Univariate Plot: Histogram of MPG
 plt.figure(figsize=(10, 6))
@@ -269,17 +198,10 @@
       <code>#Scatter Plot of Horsepower vs Weight
 # Scatter Plot of Horsepower vs Weight
 plt.figure(figsize=(10, 6))
-sns.scatterplot(x='horsepower', y='weight', data=mpg_df)
+sns.scatterplot(x='horsepower', y='weight', data=mpg_df, hue='origin')
 plt.title('Horsepower vs Weight')
 plt.xlabel('Horsepower')
 plt.ylabel('Weight')
-plt.show()</code>
-    </pythonScript>
-    <pythonScript>
-      <code>#Pair Plot of Multiple Variables
-#Pair Plot of Multiple Variables
-# Pair Plot of Multiple Variables
-sns.pairplot(mpg_df[['mpg', 'cylinders', 'displacement', 'horsepower', 'weight', 'acceleration']])
 plt.show()</code>
     </pythonScript>
     <pythonScript>
@@ -350,7 +272,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="17">
   <si>
     <t>mpg</t>
   </si>
@@ -395,30 +317,6 @@
   </si>
   <si>
     <t>Preview</t>
-  </si>
-  <si>
-    <t>Explore the dataset</t>
-  </si>
-  <si>
-    <t>Dataset Information</t>
-  </si>
-  <si>
-    <t>Summary Statistics</t>
-  </si>
-  <si>
-    <t>Histogram of MPG</t>
-  </si>
-  <si>
-    <t>Box Plot of MPG by Cylinders</t>
-  </si>
-  <si>
-    <t>Scatter Plot of Horsepower vs Weight</t>
-  </si>
-  <si>
-    <t>Pair Plot of Multiple Variables</t>
-  </si>
-  <si>
-    <t>Heatmap of Correlation Matrix</t>
   </si>
   <si>
     <t>Fuel Efficiency and Vehicle Performance Dashboard</t>
@@ -954,7 +852,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -977,6 +875,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1044,21 +945,21 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>297658</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>191828</xdr:colOff>
-      <xdr:row>70</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>7846219</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>78116</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1" title="Histogram of MPG">
+        <xdr:cNvPr id="2" name="Picture 1" descr="Image generated by Python">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3DE28D23-4042-5CBB-6F63-A485B01FA49B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6BBCACFE-7335-43D9-8B2D-7D6F337331A7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1066,7 +967,7 @@
           <a:picLocks noChangeAspect="1"/>
           <a:extLst>
             <a:ext uri="{53484399-7A02-498B-ADA4-41CD10E50FAC}">
-              <aif:imageFormula xmlns:aif="http://schemas.microsoft.com/office/drawing/2022/imageformula" formula="Analysis1!A54"/>
+              <aif:imageFormula xmlns:aif="http://schemas.microsoft.com/office/drawing/2022/imageformula" formula="dashboard!A2"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPicPr>
@@ -1079,17 +980,12 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="14525625"/>
-          <a:ext cx="6592628" cy="4267200"/>
+          <a:off x="0" y="1035846"/>
+          <a:ext cx="7846219" cy="4983490"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-        </a:ln>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -1098,21 +994,21 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>74</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>297657</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>191828</xdr:colOff>
-      <xdr:row>90</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>7854712</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>130967</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2" title="Box Plot of MPG by Cylinders">
+        <xdr:cNvPr id="3" name="Picture 2" descr="Image generated by Python">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9041F91-7F89-64D1-1ED3-EB56CB148C79}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{77BFD64F-AA51-493E-935E-89FCEF4E0DE4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1120,7 +1016,7 @@
           <a:picLocks noChangeAspect="1"/>
           <a:extLst>
             <a:ext uri="{53484399-7A02-498B-ADA4-41CD10E50FAC}">
-              <aif:imageFormula xmlns:aif="http://schemas.microsoft.com/office/drawing/2022/imageformula" formula="Analysis1!A74"/>
+              <aif:imageFormula xmlns:aif="http://schemas.microsoft.com/office/drawing/2022/imageformula" formula="dashboard!A3"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPicPr>
@@ -1133,40 +1029,35 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="19859625"/>
-          <a:ext cx="6592628" cy="4267200"/>
+          <a:off x="0" y="6238877"/>
+          <a:ext cx="7854712" cy="5548310"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-        </a:ln>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>94</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>202402</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>297658</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>324934</xdr:colOff>
-      <xdr:row>110</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>3230561</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>78116</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3" title="Scatter Plot of Horsepower vs Weight">
+        <xdr:cNvPr id="4" name="Picture 3" descr="Image generated by Python">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79070203-1283-9460-1EA2-EF6E4F3CEB78}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2AB51550-8E61-43A6-AF3E-5B9772270BCF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1174,7 +1065,7 @@
           <a:picLocks noChangeAspect="1"/>
           <a:extLst>
             <a:ext uri="{53484399-7A02-498B-ADA4-41CD10E50FAC}">
-              <aif:imageFormula xmlns:aif="http://schemas.microsoft.com/office/drawing/2022/imageformula" formula="Analysis1!A94"/>
+              <aif:imageFormula xmlns:aif="http://schemas.microsoft.com/office/drawing/2022/imageformula" formula="dashboard!C2"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPicPr>
@@ -1187,40 +1078,35 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="25193625"/>
-          <a:ext cx="6725734" cy="4267200"/>
+          <a:off x="8092277" y="1027908"/>
+          <a:ext cx="7703347" cy="4979521"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-        </a:ln>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>114</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>226216</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>309560</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>606709</xdr:colOff>
-      <xdr:row>130</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>3119436</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>59529</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4" title="Pair Plot of Multiple Variables">
+        <xdr:cNvPr id="5" name="Picture 4" descr="Image generated by Python">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{42280FBB-A329-8B0C-776B-A1A15B5BEA4E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8BBC2D12-7407-4FA9-AE28-1F114C303295}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1228,7 +1114,7 @@
           <a:picLocks noChangeAspect="1"/>
           <a:extLst>
             <a:ext uri="{53484399-7A02-498B-ADA4-41CD10E50FAC}">
-              <aif:imageFormula xmlns:aif="http://schemas.microsoft.com/office/drawing/2022/imageformula" formula="Analysis1!A114"/>
+              <aif:imageFormula xmlns:aif="http://schemas.microsoft.com/office/drawing/2022/imageformula" formula="dashboard!C3"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPicPr>
@@ -1241,71 +1127,12 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="30527625"/>
-          <a:ext cx="4264309" cy="4267200"/>
+          <a:off x="8120061" y="6250780"/>
+          <a:ext cx="7560470" cy="5464969"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>134</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>551653</xdr:colOff>
-      <xdr:row>150</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Picture 5" title="Heatmap of Correlation Matrix">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{60535841-D015-E1B8-8035-AF80AC4A1BDF}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-          <a:extLst>
-            <a:ext uri="{53484399-7A02-498B-ADA4-41CD10E50FAC}">
-              <aif:imageFormula xmlns:aif="http://schemas.microsoft.com/office/drawing/2022/imageformula" formula="Analysis1!A134"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="35861625"/>
-          <a:ext cx="6952453" cy="4267200"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-        </a:ln>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -1319,14 +1146,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>297658</xdr:rowOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>488159</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>11905</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>78116</xdr:rowOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>4971586</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1341,7 +1168,7 @@
           <a:picLocks noChangeAspect="1"/>
           <a:extLst>
             <a:ext uri="{53484399-7A02-498B-ADA4-41CD10E50FAC}">
-              <aif:imageFormula xmlns:aif="http://schemas.microsoft.com/office/drawing/2022/imageformula" formula="dashboard!A4"/>
+              <aif:imageFormula xmlns:aif="http://schemas.microsoft.com/office/drawing/2022/imageformula" formula="'dashboard-done'!A4"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPicPr>
@@ -1354,7 +1181,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="1797846"/>
+          <a:off x="0" y="1488284"/>
           <a:ext cx="7905750" cy="4983490"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1368,14 +1195,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>297657</xdr:rowOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>5155407</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>7854712</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>90022</xdr:rowOff>
+      <xdr:rowOff>238124</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1390,7 +1217,7 @@
           <a:picLocks noChangeAspect="1"/>
           <a:extLst>
             <a:ext uri="{53484399-7A02-498B-ADA4-41CD10E50FAC}">
-              <aif:imageFormula xmlns:aif="http://schemas.microsoft.com/office/drawing/2022/imageformula" formula="dashboard!A5"/>
+              <aif:imageFormula xmlns:aif="http://schemas.microsoft.com/office/drawing/2022/imageformula" formula="'dashboard-done'!A5"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPicPr>
@@ -1403,8 +1230,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="7000877"/>
-          <a:ext cx="7854712" cy="4983490"/>
+          <a:off x="0" y="6655595"/>
+          <a:ext cx="7854712" cy="5476874"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1416,15 +1243,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>226216</xdr:colOff>
+      <xdr:colOff>257173</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>381001</xdr:rowOff>
+      <xdr:rowOff>47627</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>2678904</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>161459</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>2857499</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>5031117</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1439,7 +1266,7 @@
           <a:picLocks noChangeAspect="1"/>
           <a:extLst>
             <a:ext uri="{53484399-7A02-498B-ADA4-41CD10E50FAC}">
-              <aif:imageFormula xmlns:aif="http://schemas.microsoft.com/office/drawing/2022/imageformula" formula="dashboard!C4"/>
+              <aif:imageFormula xmlns:aif="http://schemas.microsoft.com/office/drawing/2022/imageformula" formula="'dashboard-done'!C4"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPicPr>
@@ -1452,8 +1279,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8120061" y="1881189"/>
-          <a:ext cx="8429626" cy="4983490"/>
+          <a:off x="8151018" y="1547815"/>
+          <a:ext cx="7267576" cy="4983490"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1464,16 +1291,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>309560</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>369094</xdr:rowOff>
+      <xdr:rowOff>23812</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>2547935</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>5178848</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>2917030</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>23810</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1488,7 +1315,7 @@
           <a:picLocks noChangeAspect="1"/>
           <a:extLst>
             <a:ext uri="{53484399-7A02-498B-ADA4-41CD10E50FAC}">
-              <aif:imageFormula xmlns:aif="http://schemas.microsoft.com/office/drawing/2022/imageformula" formula="dashboard!C5"/>
+              <aif:imageFormula xmlns:aif="http://schemas.microsoft.com/office/drawing/2022/imageformula" formula="'dashboard-done'!C5"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPicPr>
@@ -1501,8 +1328,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8203405" y="7072314"/>
-          <a:ext cx="8215313" cy="4809754"/>
+          <a:off x="8296275" y="6727032"/>
+          <a:ext cx="7181850" cy="5191123"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1572,7 +1399,7 @@
 </file>
 
 <file path=xl/richData/rdarray.xml><?xml version="1.0" encoding="utf-8"?>
-<arrayData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" count="7">
+<arrayData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" count="4">
   <a r="12" c="9">
     <v t="s"/>
     <v t="s">mpg</v>
@@ -1684,94 +1511,12 @@
     <v t="s">usa</v>
   </a>
   <a r="2">
-    <v t="r">3</v>
-    <v t="s">&lt;DataFrame&gt;</v>
-  </a>
-  <a r="9" c="8">
-    <v t="s"/>
-    <v t="s">mpg</v>
-    <v t="s">cylinders</v>
-    <v t="s">displacement</v>
-    <v t="s">horsepower</v>
-    <v t="s">weight</v>
-    <v t="s">acceleration</v>
-    <v t="s">model_year</v>
-    <v t="s">count</v>
-    <v>398</v>
-    <v>398</v>
-    <v>398</v>
-    <v>392</v>
-    <v>398</v>
-    <v>398</v>
-    <v>398</v>
-    <v t="s">mean</v>
-    <v>23.514572864321607</v>
-    <v>5.4547738693467336</v>
-    <v>193.42587939698493</v>
-    <v>104.46938775510205</v>
-    <v>2970.424623115578</v>
-    <v>15.568090452261307</v>
-    <v>76.010050251256288</v>
-    <v t="s">std</v>
-    <v>7.8159843125657824</v>
-    <v>1.7010042445332094</v>
-    <v>104.26983817119581</v>
-    <v>38.491159932828552</v>
-    <v>846.84177419732714</v>
-    <v>2.7576889298126757</v>
-    <v>3.6976266467326231</v>
-    <v t="s">min</v>
-    <v>9</v>
-    <v>3</v>
-    <v>68</v>
-    <v>46</v>
-    <v>1613</v>
-    <v>8</v>
-    <v>70</v>
-    <v t="s">25%</v>
-    <v>17.5</v>
-    <v>4</v>
-    <v>104.25</v>
-    <v>75</v>
-    <v>2223.75</v>
-    <v>13.825000000000001</v>
-    <v>73</v>
-    <v t="s">50%</v>
-    <v>23</v>
-    <v>4</v>
-    <v>148.5</v>
-    <v>93.5</v>
-    <v>2803.5</v>
-    <v>15.5</v>
-    <v>76</v>
-    <v t="s">75%</v>
-    <v>29</v>
-    <v>8</v>
-    <v>262</v>
-    <v>126</v>
-    <v>3608</v>
-    <v>17.175000000000001</v>
-    <v>79</v>
-    <v t="s">max</v>
-    <v>46.6</v>
-    <v>8</v>
-    <v>455</v>
-    <v>230</v>
-    <v>5140</v>
-    <v>24.8</v>
-    <v>82</v>
-  </a>
-  <a r="2">
     <v>842</v>
     <v>545</v>
   </a>
   <a r="2">
     <v>859</v>
     <v>545</v>
-  </a>
-  <a r="2">
-    <v>1475</v>
-    <v>1476</v>
   </a>
   <a r="2">
     <v>857</v>
@@ -1781,7 +1526,7 @@
 </file>
 
 <file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
-<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="40">
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="22">
   <rv s="0">
     <v>0</v>
   </rv>
@@ -1801,214 +1546,111 @@
     <v>2</v>
   </rv>
   <rv s="3">
-    <fb>0</fb>
-    <v>5</v>
+    <v>0</v>
+    <v>9</v>
   </rv>
   <rv s="0">
     <v>1</v>
   </rv>
-  <rv s="1">
-    <v>tuple</v>
-    <v>4</v>
+  <rv s="4">
+    <v>Image</v>
+    <v>3</v>
+    <v>3</v>
     <v>4</v>
   </rv>
   <rv s="2">
-    <v>&lt;class 'tuple'&gt;</v>
-    <v>tuple</v>
-    <v>(None,               mpg   cylinders  displacement  horsepower       weight  \
-count  398.000000  398.000000    398.000000  392.000000   398.000000   
-mean    23.514573    5.454774    193.425879  104.469388  2970.424623   
-std      7.815984    1.701004...</v>
+    <v>&lt;class 'PIL.PngImagePlugin.PngImageFile'&gt;</v>
+    <v>PngImageFile</v>
+    <v>&lt;PIL.PngImagePlugin.PngImageFile image mode=RGBA size=842x545 at 0x7F5BAFE08C80&gt;</v>
     <v>5</v>
     <v>2</v>
   </rv>
-  <rv s="2">
-    <fb>0</fb>
-    <v>&lt;class 'NoneType'&gt;</v>
-    <v>NoneType</v>
-    <v>None</v>
-    <v>3</v>
+  <rv s="5">
+    <v>1</v>
+    <v>9</v>
+    <v>Image generated by Python</v>
+  </rv>
+  <rv s="3">
     <v>2</v>
+    <v>9</v>
   </rv>
   <rv s="0">
     <v>2</v>
   </rv>
-  <rv s="1">
-    <v>DataFrame</v>
-    <v>7</v>
+  <rv s="4">
+    <v>Image</v>
+    <v>3</v>
     <v>8</v>
+    <v>9</v>
   </rv>
   <rv s="2">
-    <v>&lt;class 'pandas.core.frame.DataFrame'&gt;</v>
-    <v>DataFrame</v>
-    <v xml:space="preserve">              mpg   cylinders  displacement  horsepower       weight  \
-count  398.000000  398.000000    398.000000  392.000000   398.000000   
-mean    23.514573    5.454774    193.425879  104.469388  2970.424623   
-std      7.815984    1.701004    104...</v>
-    <v>9</v>
+    <v>&lt;class 'PIL.PngImagePlugin.PngImageFile'&gt;</v>
+    <v>PngImageFile</v>
+    <v>&lt;PIL.PngImagePlugin.PngImageFile image mode=RGBA size=859x545 at 0x7F5BAE693D40&gt;</v>
+    <v>10</v>
     <v>2</v>
   </rv>
+  <rv s="5">
+    <v>3</v>
+    <v>9</v>
+    <v>Image generated by Python</v>
+  </rv>
+  <rv s="2">
+    <v>&lt;class 'PIL.PngImagePlugin.PngImageFile'&gt;</v>
+    <v>PngImageFile</v>
+    <v>&lt;PIL.PngImagePlugin.PngImageFile image mode=RGBA size=842x545 at 0x7F5BAE513D70&gt;</v>
+    <v>5</v>
+    <v>2</v>
+  </rv>
+  <rv s="3">
+    <v>4</v>
+    <v>9</v>
+  </rv>
   <rv s="4">
-    <v>0</v>
+    <v>Image</v>
+    <v>3</v>
+    <v>14</v>
+    <v>4</v>
+  </rv>
+  <rv s="2">
+    <v>&lt;class 'PIL.PngImagePlugin.PngImageFile'&gt;</v>
+    <v>PngImageFile</v>
+    <v>&lt;PIL.PngImagePlugin.PngImageFile image mode=RGBA size=842x545 at 0x7F5BAE4C0FB0&gt;</v>
+    <v>15</v>
+    <v>2</v>
+  </rv>
+  <rv s="2">
+    <v>&lt;class 'PIL.PngImagePlugin.PngImageFile'&gt;</v>
+    <v>PngImageFile</v>
+    <v>&lt;PIL.PngImagePlugin.PngImageFile image mode=RGBA size=859x545 at 0x7F5BAE48B530&gt;</v>
+    <v>10</v>
+    <v>2</v>
+  </rv>
+  <rv s="3">
+    <v>5</v>
     <v>9</v>
   </rv>
   <rv s="0">
     <v>3</v>
   </rv>
-  <rv s="5">
+  <rv s="4">
     <v>Image</v>
-    <v>8</v>
-    <v>11</v>
-    <v>12</v>
-  </rv>
-  <rv s="2">
-    <v>&lt;class 'PIL.PngImagePlugin.PngImageFile'&gt;</v>
-    <v>PngImageFile</v>
-    <v>&lt;PIL.PngImagePlugin.PngImageFile image mode=RGBA size=842x545 at 0x7FF472C69160&gt;</v>
-    <v>13</v>
-    <v>2</v>
-  </rv>
-  <rv s="4">
-    <v>1</v>
-    <v>9</v>
-  </rv>
-  <rv s="5">
-    <v>Image</v>
-    <v>8</v>
-    <v>15</v>
-    <v>12</v>
-  </rv>
-  <rv s="2">
-    <v>&lt;class 'PIL.PngImagePlugin.PngImageFile'&gt;</v>
-    <v>PngImageFile</v>
-    <v>&lt;PIL.PngImagePlugin.PngImageFile image mode=RGBA size=842x545 at 0x7FF4670F5760&gt;</v>
-    <v>16</v>
-    <v>2</v>
-  </rv>
-  <rv s="4">
-    <v>2</v>
-    <v>9</v>
-  </rv>
-  <rv s="0">
-    <v>4</v>
-  </rv>
-  <rv s="5">
-    <v>Image</v>
-    <v>8</v>
+    <v>3</v>
     <v>18</v>
     <v>19</v>
   </rv>
   <rv s="2">
     <v>&lt;class 'PIL.PngImagePlugin.PngImageFile'&gt;</v>
     <v>PngImageFile</v>
-    <v>&lt;PIL.PngImagePlugin.PngImageFile image mode=RGBA size=859x545 at 0x7FF467088260&gt;</v>
+    <v>&lt;PIL.PngImagePlugin.PngImageFile image mode=RGBA size=857x526 at 0x7F5BAE3C7B60&gt;</v>
     <v>20</v>
     <v>2</v>
-  </rv>
-  <rv s="4">
-    <v>3</v>
-    <v>9</v>
-  </rv>
-  <rv s="0">
-    <v>5</v>
-  </rv>
-  <rv s="5">
-    <v>Image</v>
-    <v>8</v>
-    <v>22</v>
-    <v>23</v>
-  </rv>
-  <rv s="2">
-    <v>&lt;class 'PIL.PngImagePlugin.PngImageFile'&gt;</v>
-    <v>PngImageFile</v>
-    <v>&lt;PIL.PngImagePlugin.PngImageFile image mode=RGBA size=1475x1476 at 0x7FF4670484A0&gt;</v>
-    <v>24</v>
-    <v>2</v>
-  </rv>
-  <rv s="4">
-    <v>4</v>
-    <v>9</v>
-  </rv>
-  <rv s="0">
-    <v>6</v>
-  </rv>
-  <rv s="5">
-    <v>Image</v>
-    <v>8</v>
-    <v>26</v>
-    <v>27</v>
-  </rv>
-  <rv s="2">
-    <v>&lt;class 'PIL.PngImagePlugin.PngImageFile'&gt;</v>
-    <v>PngImageFile</v>
-    <v>&lt;PIL.PngImagePlugin.PngImageFile image mode=RGBA size=857x526 at 0x7FF468C5EC00&gt;</v>
-    <v>28</v>
-    <v>2</v>
-  </rv>
-  <rv s="1">
-    <v>DataFrame</v>
-    <v>10</v>
-    <v>0</v>
-  </rv>
-  <rv s="2">
-    <v>&lt;class 'pandas.core.frame.DataFrame'&gt;</v>
-    <v>DataFrame</v>
-    <v xml:space="preserve">      mpg  cylinders  displacement  horsepower  weight  acceleration  \
-0    18.0          8         307.0       130.0    3504          12.0   
-1    15.0          8         350.0       165.0    3693          11.5   
-2    18.0          8         318.0  ...</v>
-    <v>30</v>
-    <v>2</v>
-  </rv>
-  <rv s="4">
-    <v>5</v>
-    <v>9</v>
-  </rv>
-  <rv s="5">
-    <v>Image</v>
-    <v>8</v>
-    <v>32</v>
-    <v>12</v>
-  </rv>
-  <rv s="2">
-    <v>&lt;class 'PIL.PngImagePlugin.PngImageFile'&gt;</v>
-    <v>PngImageFile</v>
-    <v>&lt;PIL.PngImagePlugin.PngImageFile image mode=RGBA size=842x545 at 0x7FF46A909520&gt;</v>
-    <v>33</v>
-    <v>2</v>
-  </rv>
-  <rv s="6">
-    <v>6</v>
-    <v>9</v>
-    <v>Image generated by Python</v>
-  </rv>
-  <rv s="4">
-    <v>7</v>
-    <v>9</v>
-  </rv>
-  <rv s="5">
-    <v>Image</v>
-    <v>8</v>
-    <v>36</v>
-    <v>19</v>
-  </rv>
-  <rv s="2">
-    <v>&lt;class 'PIL.PngImagePlugin.PngImageFile'&gt;</v>
-    <v>PngImageFile</v>
-    <v>&lt;PIL.PngImagePlugin.PngImageFile image mode=RGBA size=859x545 at 0x7FF467EB5970&gt;</v>
-    <v>37</v>
-    <v>2</v>
-  </rv>
-  <rv s="6">
-    <v>8</v>
-    <v>9</v>
-    <v>Image generated by Python</v>
   </rv>
 </rvData>
 </file>
 
 <file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
-<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="7">
+<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="6">
   <s t="_array">
     <k n="array" t="a"/>
   </s>
@@ -2023,9 +1665,6 @@
     <k n="Python_str" t="s"/>
     <k n="preview" t="r"/>
     <k n="_Provider" t="spb"/>
-  </s>
-  <s t="_formattednumber">
-    <k n="_Format" t="spb"/>
   </s>
   <s t="_localImage">
     <k n="_rvRel:LocalImageIdentifier" t="i"/>
@@ -2047,7 +1686,7 @@
 
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
-  <spbData count="11">
+  <spbData count="4">
     <spb s="0">
       <v>398</v>
       <v>8</v>
@@ -2064,46 +1703,14 @@
       <v>Python provided by Anaconda</v>
     </spb>
     <spb s="3">
-      <v>2</v>
       <v>1</v>
-      <v>tuple</v>
-      <v>arrayPreview</v>
-    </spb>
-    <spb s="1">
-      <v>3</v>
-    </spb>
-    <spb s="4">
-      <v>1</v>
-    </spb>
-    <spb s="0">
-      <v>8</v>
-      <v>7</v>
-      <v>DataFrame</v>
-      <v>arrayPreview</v>
-      <v>1</v>
-    </spb>
-    <spb s="1">
-      <v>6</v>
-    </spb>
-    <spb s="5">
-      <v>2</v>
-    </spb>
-    <spb s="0">
-      <v>319</v>
-      <v>8</v>
-      <v>DataFrame</v>
-      <v>arrayPreview</v>
-      <v>1</v>
-    </spb>
-    <spb s="1">
-      <v>9</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
 </file>
 
 <file path=xl/richData/rdsupportingpropertybagstructure.xml><?xml version="1.0" encoding="utf-8"?>
-<spbStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" count="6">
+<spbStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" count="4">
   <s>
     <k n="drw" t="i"/>
     <k n="dcol" t="i"/>
@@ -2120,15 +1727,6 @@
     <k n="name" t="s"/>
   </s>
   <s>
-    <k n="drw" t="i"/>
-    <k n="dcol" t="i"/>
-    <k n="name" t="s"/>
-    <k n="array" t="s"/>
-  </s>
-  <s>
-    <k n="_Self" t="i"/>
-  </s>
-  <s>
     <k n="image" t="i"/>
   </s>
 </spbStructures>
@@ -2136,21 +1734,12 @@
 
 <file path=xl/richData/richStyles.xml><?xml version="1.0" encoding="utf-8"?>
 <richStyleSheet xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
-  <dxfs count="1">
-    <x:dxf>
-      <x:numFmt numFmtId="0" formatCode="General"/>
-    </x:dxf>
-  </dxfs>
   <richProperties>
-    <rPr n="NumberFormat" t="s"/>
     <rPr n="IsHeroField" t="b"/>
   </richProperties>
   <richStyles>
-    <rSty dxfid="0">
-      <rpv i="0">0;-0;"None"</rpv>
-    </rSty>
     <rSty>
-      <rpv i="1">1</rpv>
+      <rpv i="0">1</rpv>
     </rSty>
   </richStyles>
 </richStyleSheet>
@@ -2164,9 +1753,6 @@
   <rel r:id="rId4"/>
   <rel r:id="rId5"/>
   <rel r:id="rId6"/>
-  <rel r:id="rId7"/>
-  <rel r:id="rId8"/>
-  <rel r:id="rId9"/>
 </richValueRels>
 </file>
 
@@ -12862,9 +12448,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E08C75C-741E-4F75-98E0-43D7945301A8}">
-  <dimension ref="A1:I134"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.65"/>
   <sheetData>
@@ -13243,421 +12831,136 @@
         <v>usa</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.65">
-      <c r="A23" s="2" t="s">
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF9BFC2F-AE26-4848-A0FA-737DAC6BF42C}">
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="XFD6" sqref="XFD6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="21" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.65"/>
+  <cols>
+    <col min="1" max="1" width="75.31640625" customWidth="1"/>
+    <col min="2" max="2" width="3.76953125" customWidth="1"/>
+    <col min="3" max="5" width="10.58984375" customWidth="1"/>
+    <col min="6" max="6" width="9.04296875" customWidth="1"/>
+    <col min="7" max="7" width="32.36328125" customWidth="1"/>
+    <col min="8" max="16384" width="76.90625" hidden="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="57.75" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="A1" s="9" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.65">
-      <c r="A24" t="e" cm="1" vm="2">
-        <f t="array" ref="A24">_xlfn._xlws.PY(1,1)</f>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" t="e" cm="1">
+        <f t="array" aca="1" ref="H1" ca="1">_xlfn._xlws.FILTER(_xlfn.ANCHORARRAY(#REF!), OFFSET(_xlfn.ANCHORARRAY(#REF!), -1, ) = TRUE)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="409.5" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="A2" s="5" t="e" cm="1" vm="2">
+        <f t="array" ref="A2">_xlfn._xlws.PY(1,1)</f>
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.65">
-      <c r="A26" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.65">
-      <c r="A27" cm="1" vm="3">
-        <f t="array" ref="A27:A28">IFERROR(_FV(A24,"arrayPreview"),_xlfn._DF_Python_str(A24))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.65">
-      <c r="A28" t="str">
-        <v>&lt;DataFrame&gt;</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.65">
-      <c r="A31" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.65">
-      <c r="A32" cm="1" vm="4">
-        <f t="array" ref="A32">_xlfn._xlws.PY(2,1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A34" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A35" t="str" cm="1">
-        <f t="array" ref="A35">IFERROR(_FV(A32,"arrayPreview"),_xlfn._DF_Python_str(A32))</f>
-        <v>None</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A38" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A39" t="e" cm="1" vm="5">
-        <f t="array" ref="A39">_xlfn._xlws.PY(3,1)</f>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5" t="e" cm="1" vm="3">
+        <f t="array" ref="C2">_xlfn._xlws.PY(2,0)</f>
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A41" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A42" t="str" cm="1">
-        <f t="array" ref="A42:H50">IFERROR(_FV(A39,"arrayPreview"),_xlfn._DF_Python_str(A39))</f>
-        <v/>
-      </c>
-      <c r="B42" t="str">
-        <v>mpg</v>
-      </c>
-      <c r="C42" t="str">
-        <v>cylinders</v>
-      </c>
-      <c r="D42" t="str">
-        <v>displacement</v>
-      </c>
-      <c r="E42" t="str">
-        <v>horsepower</v>
-      </c>
-      <c r="F42" t="str">
-        <v>weight</v>
-      </c>
-      <c r="G42" t="str">
-        <v>acceleration</v>
-      </c>
-      <c r="H42" t="str">
-        <v>model_year</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A43" t="str">
-        <v>count</v>
-      </c>
-      <c r="B43">
-        <v>398</v>
-      </c>
-      <c r="C43">
-        <v>398</v>
-      </c>
-      <c r="D43">
-        <v>398</v>
-      </c>
-      <c r="E43">
-        <v>392</v>
-      </c>
-      <c r="F43">
-        <v>398</v>
-      </c>
-      <c r="G43">
-        <v>398</v>
-      </c>
-      <c r="H43">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A44" t="str">
-        <v>mean</v>
-      </c>
-      <c r="B44">
-        <v>23.514572864321607</v>
-      </c>
-      <c r="C44">
-        <v>5.4547738693467336</v>
-      </c>
-      <c r="D44">
-        <v>193.42587939698493</v>
-      </c>
-      <c r="E44">
-        <v>104.46938775510205</v>
-      </c>
-      <c r="F44">
-        <v>2970.424623115578</v>
-      </c>
-      <c r="G44">
-        <v>15.568090452261307</v>
-      </c>
-      <c r="H44">
-        <v>76.010050251256288</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A45" t="str">
-        <v>std</v>
-      </c>
-      <c r="B45">
-        <v>7.8159843125657824</v>
-      </c>
-      <c r="C45">
-        <v>1.7010042445332094</v>
-      </c>
-      <c r="D45">
-        <v>104.26983817119581</v>
-      </c>
-      <c r="E45">
-        <v>38.491159932828552</v>
-      </c>
-      <c r="F45">
-        <v>846.84177419732714</v>
-      </c>
-      <c r="G45">
-        <v>2.7576889298126757</v>
-      </c>
-      <c r="H45">
-        <v>3.6976266467326231</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A46" t="str">
-        <v>min</v>
-      </c>
-      <c r="B46">
-        <v>9</v>
-      </c>
-      <c r="C46">
-        <v>3</v>
-      </c>
-      <c r="D46">
-        <v>68</v>
-      </c>
-      <c r="E46">
-        <v>46</v>
-      </c>
-      <c r="F46">
-        <v>1613</v>
-      </c>
-      <c r="G46">
-        <v>8</v>
-      </c>
-      <c r="H46">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A47" t="str">
-        <v>25%</v>
-      </c>
-      <c r="B47">
-        <v>17.5</v>
-      </c>
-      <c r="C47">
-        <v>4</v>
-      </c>
-      <c r="D47">
-        <v>104.25</v>
-      </c>
-      <c r="E47">
-        <v>75</v>
-      </c>
-      <c r="F47">
-        <v>2223.75</v>
-      </c>
-      <c r="G47">
-        <v>13.825000000000001</v>
-      </c>
-      <c r="H47">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A48" t="str">
-        <v>50%</v>
-      </c>
-      <c r="B48">
-        <v>23</v>
-      </c>
-      <c r="C48">
-        <v>4</v>
-      </c>
-      <c r="D48">
-        <v>148.5</v>
-      </c>
-      <c r="E48">
-        <v>93.5</v>
-      </c>
-      <c r="F48">
-        <v>2803.5</v>
-      </c>
-      <c r="G48">
-        <v>15.5</v>
-      </c>
-      <c r="H48">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A49" t="str">
-        <v>75%</v>
-      </c>
-      <c r="B49">
-        <v>29</v>
-      </c>
-      <c r="C49">
-        <v>8</v>
-      </c>
-      <c r="D49">
-        <v>262</v>
-      </c>
-      <c r="E49">
-        <v>126</v>
-      </c>
-      <c r="F49">
-        <v>3608</v>
-      </c>
-      <c r="G49">
-        <v>17.175000000000001</v>
-      </c>
-      <c r="H49">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A50" t="str">
-        <v>max</v>
-      </c>
-      <c r="B50">
-        <v>46.6</v>
-      </c>
-      <c r="C50">
-        <v>8</v>
-      </c>
-      <c r="D50">
-        <v>455</v>
-      </c>
-      <c r="E50">
-        <v>230</v>
-      </c>
-      <c r="F50">
-        <v>5140</v>
-      </c>
-      <c r="G50">
-        <v>24.8</v>
-      </c>
-      <c r="H50">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A53" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A54" t="e" cm="1" vm="6">
-        <f t="array" ref="A54">_xlfn._xlws.PY(4,1)</f>
+      <c r="D2" s="5"/>
+    </row>
+    <row r="3" spans="1:8" ht="409.15" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="A3" s="4" t="e" cm="1" vm="4">
+        <f t="array" ref="A3">_xlfn._xlws.PY(3,1)</f>
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.65">
-      <c r="A73" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.65">
-      <c r="A74" t="e" cm="1" vm="7">
-        <f t="array" ref="A74">_xlfn._xlws.PY(5,1)</f>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4" t="e" cm="1" vm="5">
+        <f t="array" ref="C3">_xlfn._xlws.PY(4,0)</f>
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.65">
-      <c r="A93" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.65">
-      <c r="A94" t="e" cm="1" vm="8">
-        <f t="array" ref="A94">_xlfn._xlws.PY(6,1)</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.65">
-      <c r="A113" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.65">
-      <c r="A114" t="e" cm="1" vm="9">
-        <f t="array" ref="A114">_xlfn._xlws.PY(7,1)</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.65">
-      <c r="A133" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.65">
-      <c r="A134" t="e" cm="1" vm="10">
-        <f t="array" ref="A134">_xlfn._xlws.PY(8,1)</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
+      <c r="D3" s="4"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.65"/>
+    <row r="5" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.65"/>
+    <row r="6" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.65"/>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:G1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2EE3218-BDB6-48A3-9AC7-358C663A5B36}">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="21" zeroHeight="1" x14ac:dyDescent="0.65"/>
   <cols>
     <col min="1" max="1" width="75.31640625" customWidth="1"/>
     <col min="2" max="2" width="3.76953125" customWidth="1"/>
-    <col min="3" max="3" width="42.40625" customWidth="1"/>
-    <col min="4" max="4" width="10.953125" customWidth="1"/>
-    <col min="5" max="5" width="27.6796875" customWidth="1"/>
-    <col min="6" max="6" width="9.04296875" hidden="1" customWidth="1"/>
-    <col min="7" max="9" width="0" hidden="1" customWidth="1"/>
-    <col min="10" max="16384" width="76.90625" hidden="1"/>
+    <col min="3" max="5" width="10.58984375" customWidth="1"/>
+    <col min="6" max="6" width="9.04296875" customWidth="1"/>
+    <col min="7" max="7" width="32.36328125" customWidth="1"/>
+    <col min="8" max="16384" width="76.90625" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="28.5" x14ac:dyDescent="0.85">
-      <c r="A1" s="9" t="s">
-        <v>23</v>
+    <row r="1" spans="1:10" ht="28.5" x14ac:dyDescent="0.85">
+      <c r="A1" s="10" t="s">
+        <v>15</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1" t="str" cm="1">
-        <f t="array" aca="1" ref="G1:H1" ca="1">_xlfn._xlws.FILTER(_xlfn.ANCHORARRAY(C3), OFFSET(_xlfn.ANCHORARRAY(C3), -1, ) = TRUE)</f>
+        <v>16</v>
+      </c>
+      <c r="H1" t="str" cm="1">
+        <f t="array" aca="1" ref="H1:J1" ca="1">_xlfn._xlws.FILTER(_xlfn.ANCHORARRAY(C3), OFFSET(_xlfn.ANCHORARRAY(C3), -1, ) = TRUE)</f>
         <v>usa</v>
       </c>
-      <c r="H1" t="str">
+      <c r="I1" t="str">
+        <f ca="1"/>
+        <v>japan</v>
+      </c>
+      <c r="J1" t="str">
         <f ca="1"/>
         <v>europe</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A2" s="9"/>
+    <row r="2" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="A2" s="10"/>
       <c r="C2" s="6" t="b">
         <v>1</v>
       </c>
       <c r="D2" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="G2" t="e" cm="1" vm="11">
-        <f t="array" aca="1" ref="G2" ca="1">_xlfn._xlws.PY(9,1,_xlfn.ANCHORARRAY(G1))</f>
+      <c r="H2" t="e" cm="1" vm="1">
+        <f t="array" aca="1" ref="H2" ca="1">_xlfn._xlws.PY(5,1,_xlfn.ANCHORARRAY(H1))</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.85">
-      <c r="A3" s="9"/>
+    <row r="3" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.85">
+      <c r="A3" s="10"/>
       <c r="C3" s="7" t="str" cm="1">
         <f t="array" ref="C3:E3">TRANSPOSE(_xlfn.UNIQUE(mpg[origin]))</f>
         <v>usa</v>
@@ -13669,31 +12972,31 @@
         <v>europe</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="409.5" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A4" s="5" t="e" cm="1" vm="12">
-        <f t="array" aca="1" ref="A4" ca="1">_xlfn._xlws.PY(10,1)</f>
+    <row r="4" spans="1:10" ht="409.5" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="A4" s="5" t="e" cm="1" vm="6">
+        <f t="array" aca="1" ref="A4" ca="1">_xlfn._xlws.PY(6,1)</f>
         <v>#VALUE!</v>
       </c>
       <c r="B4" s="5"/>
-      <c r="C4" s="5" t="e" cm="1" vm="13">
-        <f t="array" aca="1" ref="C4" ca="1">_xlfn._xlws.PY(11,0)</f>
+      <c r="C4" s="5" t="e" cm="1" vm="7">
+        <f t="array" aca="1" ref="C4" ca="1">_xlfn._xlws.PY(7,1)</f>
         <v>#VALUE!</v>
       </c>
       <c r="D4" s="5"/>
     </row>
-    <row r="5" spans="1:8" ht="409.15" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A5" s="4" t="e" cm="1" vm="14">
-        <f t="array" aca="1" ref="A5" ca="1">_xlfn._xlws.PY(12,1)</f>
+    <row r="5" spans="1:10" ht="409.15" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="A5" s="4" t="e" cm="1" vm="8">
+        <f t="array" aca="1" ref="A5" ca="1">_xlfn._xlws.PY(8,1)</f>
         <v>#VALUE!</v>
       </c>
       <c r="B5" s="4"/>
-      <c r="C5" s="4" t="e" cm="1" vm="15">
-        <f t="array" aca="1" ref="C5" ca="1">_xlfn._xlws.PY(13,0)</f>
+      <c r="C5" s="4" t="e" cm="1" vm="9">
+        <f t="array" aca="1" ref="C5" ca="1">_xlfn._xlws.PY(9,1)</f>
         <v>#VALUE!</v>
       </c>
       <c r="D5" s="4"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.65"/>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.65"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:A3"/>
